--- a/Code/Exercises/DiD ATT.xlsx
+++ b/Code/Exercises/DiD ATT.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference/Code/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F2225-94B6-4B4F-919A-794DADE0A1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9311C43-7B6D-4B4E-8F48-4F06C8E21AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="500" windowWidth="36320" windowHeight="27120" activeTab="1" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
+    <workbookView xWindow="5580" yWindow="500" windowWidth="45620" windowHeight="27120" activeTab="1" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple DiD" sheetId="11" r:id="rId1"/>
     <sheet name="Dynamic ATT" sheetId="8" r:id="rId2"/>
-    <sheet name="Event study" sheetId="12" r:id="rId3"/>
+    <sheet name="Constant ATT" sheetId="13" r:id="rId3"/>
+    <sheet name="Event study" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="105">
   <si>
     <t>ATT(1986,t)</t>
   </si>
@@ -115,9 +116,6 @@
     <t>3.  Which ones of those is comparing a treated group with a non-yet-treated?  Which one is comparing a treated group to an already treated?</t>
   </si>
   <si>
-    <t>4 Are treatment effects "dynamic" or "constant"?</t>
-  </si>
-  <si>
     <t>Calculating ATT</t>
   </si>
   <si>
@@ -305,6 +303,54 @@
   </si>
   <si>
     <t>Feasible ATT</t>
+  </si>
+  <si>
+    <t>4. Are treatment effects "dynamic" or "constant"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line 32: I took a weighted average over all the ATT cells. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each cell is called a "group-time ATT" bc it's the 1986 group ATT in 2004. </t>
+  </si>
+  <si>
+    <t>I can actually calculate several weighted averages. I can do weighted averages per group (line 32), or a weighted average over all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line 33: this is the "overall ATT" in the sense that it is a weighted average over all group-time ATT cells. </t>
+  </si>
+  <si>
+    <t>In line 33, I added all 60 ATT(g,t) together and divided by 60. SO the weight was equal to all cells and 1/60</t>
+  </si>
+  <si>
+    <t>In line 34, though, I found an overall ATT of 63.5.  If these are both based on the same cells, and they are both weighted averages</t>
+  </si>
+  <si>
+    <t>over all the cells, then why did I find 82 in line 33, but 63.5 in line 34?</t>
+  </si>
+  <si>
+    <t>uniform weights of 1/60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniform weight of 1/4 to each ATT(g) in line 32, but each ATT(g) itself was using different weights. </t>
+  </si>
+  <si>
+    <t>This is MERELY to show you that the idea of the ATT is a weighted average over underlying smaller level ATT parameters, and the weights</t>
+  </si>
+  <si>
+    <t>chosen could be reasonable along a couple of idfferent dimensions -- we just need to know exactly what aggregate overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATT parameter we are trying to calculate in order to know how to weight the dat. </t>
+  </si>
+  <si>
+    <t>In all of these notice -- no matter how I weighted the data, I always get a positive ATT.  Positive 82; positive 63.5; every ATT cell is positive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So long as the weights are positive, then the aggregate will be a positive treatment. </t>
+  </si>
+  <si>
+    <t>ATT(g) CS</t>
   </si>
 </sst>
 </file>
@@ -328,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +468,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -719,7 +777,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,6 +865,8 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -821,9 +880,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1166,7 +1245,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1229,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -1355,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="11">
         <f>AVERAGE(D8:D12)</f>
@@ -1456,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1483,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" s="11">
         <f>AVERAGE(D2:D7)</f>
@@ -1512,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="11">
         <f>AVERAGE(D8:D12)</f>
@@ -1541,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="44">
         <f>I17-I16</f>
@@ -1570,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I19" s="11">
         <f>(I17-I16) - (J17-J16)</f>
@@ -1613,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1654,20 +1733,20 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="45">
         <f>AVERAGE(E2:E7)</f>
@@ -1680,7 +1759,7 @@
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="47">
         <f>AVERAGE(E8:E12)</f>
@@ -1691,40 +1770,40 @@
         <v>11.58881</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="44">
         <f>(B28-B27) - (C28-C27)</f>
         <v>29.990736833333333</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="44">
         <f>AVERAGE(C8:C12) - AVERAGE(D8:D12)</f>
@@ -1737,34 +1816,34 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="44"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1777,70 +1856,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B26958-D2FD-B340-96F0-C0F0E677AC3F}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="99" t="s">
+      <c r="B1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="83"/>
+      <c r="G1" s="82"/>
       <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="A2" s="73">
         <v>1980</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="83"/>
+      <c r="B2" s="112">
+        <v>0</v>
+      </c>
+      <c r="C2" s="112">
+        <v>0</v>
+      </c>
+      <c r="D2" s="112">
+        <v>0</v>
+      </c>
+      <c r="E2" s="113">
+        <v>0</v>
+      </c>
+      <c r="G2" s="82"/>
       <c r="H2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="A3" s="73">
         <v>1981</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B3" s="112">
+        <v>0</v>
+      </c>
+      <c r="C3" s="112">
+        <v>0</v>
+      </c>
+      <c r="D3" s="112">
+        <v>0</v>
+      </c>
+      <c r="E3" s="113">
         <v>0</v>
       </c>
       <c r="H3" t="s">
@@ -1848,19 +1930,19 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4" s="73">
         <v>1982</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="B4" s="112">
+        <v>0</v>
+      </c>
+      <c r="C4" s="112">
+        <v>0</v>
+      </c>
+      <c r="D4" s="112">
+        <v>0</v>
+      </c>
+      <c r="E4" s="113">
         <v>0</v>
       </c>
       <c r="H4" t="s">
@@ -1868,76 +1950,76 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="73">
         <v>1983</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="B5" s="112">
+        <v>0</v>
+      </c>
+      <c r="C5" s="112">
+        <v>0</v>
+      </c>
+      <c r="D5" s="112">
+        <v>0</v>
+      </c>
+      <c r="E5" s="113">
         <v>0</v>
       </c>
       <c r="H5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="73">
+        <v>1984</v>
+      </c>
+      <c r="B6" s="112">
+        <v>0</v>
+      </c>
+      <c r="C6" s="112">
+        <v>0</v>
+      </c>
+      <c r="D6" s="112">
+        <v>0</v>
+      </c>
+      <c r="E6" s="113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73">
+        <v>1985</v>
+      </c>
+      <c r="B7" s="112">
+        <v>0</v>
+      </c>
+      <c r="C7" s="112">
+        <v>0</v>
+      </c>
+      <c r="D7" s="112">
+        <v>0</v>
+      </c>
+      <c r="E7" s="113">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>1984</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>1985</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="A8" s="73">
         <v>1986</v>
       </c>
-      <c r="B8" s="84">
+      <c r="B8" s="83">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="C8" s="112">
+        <v>0</v>
+      </c>
+      <c r="D8" s="112">
+        <v>0</v>
+      </c>
+      <c r="E8" s="113">
         <v>0</v>
       </c>
       <c r="H8" t="s">
@@ -1945,19 +2027,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+      <c r="A9" s="73">
         <v>1987</v>
       </c>
-      <c r="B9" s="85">
+      <c r="B9" s="84">
         <v>20</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="C9" s="112">
+        <v>0</v>
+      </c>
+      <c r="D9" s="112">
+        <v>0</v>
+      </c>
+      <c r="E9" s="113">
         <v>0</v>
       </c>
       <c r="H9" t="s">
@@ -1965,19 +2047,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+      <c r="A10" s="73">
         <v>1988</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="84">
         <v>30</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="C10" s="112">
+        <v>0</v>
+      </c>
+      <c r="D10" s="112">
+        <v>0</v>
+      </c>
+      <c r="E10" s="113">
         <v>0</v>
       </c>
       <c r="H10" t="s">
@@ -1985,19 +2067,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="A11" s="73">
         <v>1989</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="84">
         <v>40</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="C11" s="112">
+        <v>0</v>
+      </c>
+      <c r="D11" s="112">
+        <v>0</v>
+      </c>
+      <c r="E11" s="113">
         <v>0</v>
       </c>
       <c r="H11" t="s">
@@ -2005,374 +2087,455 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+      <c r="A12" s="73">
         <v>1990</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="84">
         <v>50</v>
       </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="C12" s="112">
+        <v>0</v>
+      </c>
+      <c r="D12" s="112">
+        <v>0</v>
+      </c>
+      <c r="E12" s="113">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="73">
         <v>1991</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="84">
         <v>60</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="C13" s="112">
+        <v>0</v>
+      </c>
+      <c r="D13" s="112">
+        <v>0</v>
+      </c>
+      <c r="E13" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+      <c r="A14" s="73">
         <v>1992</v>
       </c>
-      <c r="B14" s="85">
+      <c r="B14" s="84">
         <v>70</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="85">
         <v>8</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="112">
+        <v>0</v>
+      </c>
+      <c r="E14" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+      <c r="A15" s="73">
         <v>1993</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="84">
         <v>80</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="86">
         <v>16</v>
       </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
+      <c r="D15" s="112">
+        <v>0</v>
+      </c>
+      <c r="E15" s="113">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+      <c r="A16" s="73">
         <v>1994</v>
       </c>
-      <c r="B16" s="85">
+      <c r="B16" s="84">
         <v>90</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="86">
         <v>24</v>
       </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="D16" s="112">
+        <v>0</v>
+      </c>
+      <c r="E16" s="113">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="73">
         <v>1995</v>
       </c>
-      <c r="B17" s="85">
+      <c r="B17" s="84">
         <v>100</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="86">
         <v>32</v>
       </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+      <c r="D17" s="112">
+        <v>0</v>
+      </c>
+      <c r="E17" s="113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="73">
         <v>1996</v>
       </c>
-      <c r="B18" s="85">
+      <c r="B18" s="84">
         <v>110</v>
       </c>
-      <c r="C18" s="87">
+      <c r="C18" s="86">
         <v>40</v>
       </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="D18" s="112">
+        <v>0</v>
+      </c>
+      <c r="E18" s="113">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="73">
         <v>1997</v>
       </c>
-      <c r="B19" s="85">
+      <c r="B19" s="84">
         <v>120</v>
       </c>
-      <c r="C19" s="87">
+      <c r="C19" s="86">
         <v>48</v>
       </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="D19" s="112">
+        <v>0</v>
+      </c>
+      <c r="E19" s="113">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="73">
         <v>1998</v>
       </c>
-      <c r="B20" s="85">
+      <c r="B20" s="84">
         <v>130</v>
       </c>
-      <c r="C20" s="87">
+      <c r="C20" s="86">
         <v>56</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="87">
         <v>6</v>
       </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+      <c r="E20" s="113">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="73">
         <v>1999</v>
       </c>
-      <c r="B21" s="85">
+      <c r="B21" s="84">
         <v>140</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="86">
         <v>64</v>
       </c>
-      <c r="D21" s="89">
+      <c r="D21" s="88">
         <v>12</v>
       </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
+      <c r="E21" s="113">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="73">
         <v>2000</v>
       </c>
-      <c r="B22" s="85">
+      <c r="B22" s="84">
         <v>150</v>
       </c>
-      <c r="C22" s="87">
+      <c r="C22" s="86">
         <v>72</v>
       </c>
-      <c r="D22" s="89">
+      <c r="D22" s="88">
         <v>18</v>
       </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
+      <c r="E22" s="113">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="73">
         <v>2001</v>
       </c>
-      <c r="B23" s="85">
+      <c r="B23" s="84">
         <v>160</v>
       </c>
-      <c r="C23" s="87">
+      <c r="C23" s="86">
         <v>80</v>
       </c>
-      <c r="D23" s="89">
+      <c r="D23" s="88">
         <v>24</v>
       </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
+      <c r="E23" s="113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="73">
         <v>2002</v>
       </c>
-      <c r="B24" s="85">
+      <c r="B24" s="84">
         <v>170</v>
       </c>
-      <c r="C24" s="87">
+      <c r="C24" s="86">
         <v>88</v>
       </c>
-      <c r="D24" s="89">
+      <c r="D24" s="88">
         <v>30</v>
       </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="E24" s="113">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73">
         <v>2003</v>
       </c>
-      <c r="B25" s="85">
+      <c r="B25" s="84">
         <v>180</v>
       </c>
-      <c r="C25" s="87">
+      <c r="C25" s="86">
         <v>96</v>
       </c>
-      <c r="D25" s="89">
+      <c r="D25" s="88">
         <v>36</v>
       </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
+      <c r="E25" s="113">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="109">
         <v>2004</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="105">
         <v>190</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="105">
         <v>104</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="105">
         <v>42</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="105">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
+      <c r="I26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="104">
         <v>2005</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="106">
         <v>200</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="106">
         <v>112</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="106">
         <v>48</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="106">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="104">
         <v>2006</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="106">
         <v>210</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="106">
         <v>120</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="106">
         <v>54</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="106">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
+      <c r="H28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="104">
         <v>2007</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B29" s="106">
         <v>220</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="106">
         <v>128</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="106">
         <v>60</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="106">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="104">
         <v>2008</v>
       </c>
-      <c r="B30" s="52">
+      <c r="B30" s="106">
         <v>230</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="106">
         <v>136</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="106">
         <v>66</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="106">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="107">
         <v>2009</v>
       </c>
-      <c r="B31" s="54">
+      <c r="B31" s="108">
         <v>240</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="108">
         <v>144</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="108">
         <v>72</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="108">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="90" t="s">
+    <row r="32" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="91"/>
-    </row>
-    <row r="33" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="94" t="s">
+      <c r="B32" s="99">
+        <f>AVERAGE(B8:B31)</f>
+        <v>125</v>
+      </c>
+      <c r="C32" s="99">
+        <f>AVERAGE(C14:C31)</f>
+        <v>76</v>
+      </c>
+      <c r="D32" s="99">
+        <f>AVERAGE(D20:D31)</f>
+        <v>39</v>
+      </c>
+      <c r="E32" s="92">
+        <f>AVERAGE(E26:E31)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="99">
+        <f>AVERAGE(B8:B25)</f>
+        <v>95</v>
+      </c>
+      <c r="C33" s="90">
+        <f>AVERAGE(C14:C25)</f>
+        <v>52</v>
+      </c>
+      <c r="D33" s="91">
+        <f>AVERAGE(D20:D25)</f>
+        <v>21</v>
+      </c>
+      <c r="E33" s="92"/>
+    </row>
+    <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="95"/>
-    </row>
-    <row r="34" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="92" t="s">
+      <c r="B34" s="96">
+        <f>AVERAGE(B8:B31,C14:C31,D20:D31,E26:E31)</f>
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="93"/>
-    </row>
-    <row r="35" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="97"/>
+      <c r="B35" s="94">
+        <f>AVERAGE(B32:E32)</f>
+        <v>63.5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="110">
+        <f>AVERAGE(B8:B25,C14:C25,D20:D25)</f>
+        <v>68.333333333333329</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2380,6 +2543,599 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1B4EB1-DB07-9140-A162-D93248F2BA98}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1980</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>1981</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>1982</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>1983</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>1984</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>1985</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>1986</v>
+      </c>
+      <c r="B8" s="83">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>1987</v>
+      </c>
+      <c r="B9" s="84">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>1988</v>
+      </c>
+      <c r="B10" s="84">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>1989</v>
+      </c>
+      <c r="B11" s="84">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <v>1990</v>
+      </c>
+      <c r="B12" s="84">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>1991</v>
+      </c>
+      <c r="B13" s="84">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>1992</v>
+      </c>
+      <c r="B14" s="84">
+        <v>10</v>
+      </c>
+      <c r="C14" s="85">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>1993</v>
+      </c>
+      <c r="B15" s="84">
+        <v>10</v>
+      </c>
+      <c r="C15" s="86">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
+        <v>1994</v>
+      </c>
+      <c r="B16" s="84">
+        <v>10</v>
+      </c>
+      <c r="C16" s="86">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <v>1995</v>
+      </c>
+      <c r="B17" s="84">
+        <v>10</v>
+      </c>
+      <c r="C17" s="86">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <v>1996</v>
+      </c>
+      <c r="B18" s="84">
+        <v>10</v>
+      </c>
+      <c r="C18" s="86">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>1997</v>
+      </c>
+      <c r="B19" s="84">
+        <v>10</v>
+      </c>
+      <c r="C19" s="86">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
+        <v>1998</v>
+      </c>
+      <c r="B20" s="84">
+        <v>10</v>
+      </c>
+      <c r="C20" s="86">
+        <v>8</v>
+      </c>
+      <c r="D20" s="87">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
+        <v>1999</v>
+      </c>
+      <c r="B21" s="84">
+        <v>10</v>
+      </c>
+      <c r="C21" s="86">
+        <v>8</v>
+      </c>
+      <c r="D21" s="88">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="84">
+        <v>10</v>
+      </c>
+      <c r="C22" s="86">
+        <v>8</v>
+      </c>
+      <c r="D22" s="88">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
+        <v>2001</v>
+      </c>
+      <c r="B23" s="84">
+        <v>10</v>
+      </c>
+      <c r="C23" s="86">
+        <v>8</v>
+      </c>
+      <c r="D23" s="88">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <v>2002</v>
+      </c>
+      <c r="B24" s="84">
+        <v>10</v>
+      </c>
+      <c r="C24" s="86">
+        <v>8</v>
+      </c>
+      <c r="D24" s="88">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>2003</v>
+      </c>
+      <c r="B25" s="84">
+        <v>10</v>
+      </c>
+      <c r="C25" s="86">
+        <v>8</v>
+      </c>
+      <c r="D25" s="88">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <v>2004</v>
+      </c>
+      <c r="B26" s="84">
+        <v>10</v>
+      </c>
+      <c r="C26" s="86">
+        <v>8</v>
+      </c>
+      <c r="D26" s="88">
+        <v>6</v>
+      </c>
+      <c r="E26" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <v>2005</v>
+      </c>
+      <c r="B27" s="84">
+        <v>10</v>
+      </c>
+      <c r="C27" s="86">
+        <v>8</v>
+      </c>
+      <c r="D27" s="88">
+        <v>6</v>
+      </c>
+      <c r="E27" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>2006</v>
+      </c>
+      <c r="B28" s="84">
+        <v>10</v>
+      </c>
+      <c r="C28" s="86">
+        <v>8</v>
+      </c>
+      <c r="D28" s="88">
+        <v>6</v>
+      </c>
+      <c r="E28" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
+        <v>2007</v>
+      </c>
+      <c r="B29" s="84">
+        <v>10</v>
+      </c>
+      <c r="C29" s="86">
+        <v>8</v>
+      </c>
+      <c r="D29" s="88">
+        <v>6</v>
+      </c>
+      <c r="E29" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
+        <v>2008</v>
+      </c>
+      <c r="B30" s="84">
+        <v>10</v>
+      </c>
+      <c r="C30" s="86">
+        <v>8</v>
+      </c>
+      <c r="D30" s="88">
+        <v>6</v>
+      </c>
+      <c r="E30" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>2009</v>
+      </c>
+      <c r="B31" s="84">
+        <v>10</v>
+      </c>
+      <c r="C31" s="86">
+        <v>8</v>
+      </c>
+      <c r="D31" s="88">
+        <v>6</v>
+      </c>
+      <c r="E31" s="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="99">
+        <f>AVERAGE(B8:B31)</f>
+        <v>10</v>
+      </c>
+      <c r="C32" s="99">
+        <f>AVERAGE(C14:C31)</f>
+        <v>8</v>
+      </c>
+      <c r="D32" s="99">
+        <f>AVERAGE(D20:D31)</f>
+        <v>6</v>
+      </c>
+      <c r="E32" s="92">
+        <f>AVERAGE(E26:E31)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="96">
+        <f>AVERAGE(B8:B31,C14:C31,D20:D31,E26:E31)</f>
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="94">
+        <f>AVERAGE(B32:E32)</f>
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="98"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8FA5D0-DE9F-6548-A74E-2E4FC95C5DFC}">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -2408,14 +3164,14 @@
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="55" t="s">
-        <v>55</v>
+      <c r="J1" s="54" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2434,16 +3190,16 @@
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="59">
+      <c r="H2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="58">
         <f>AVERAGE(B5,C11,D17)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="58"/>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2463,18 +3219,18 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="57">
+        <v>82</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="56">
         <f>AVERAGE(B6,C12,D18)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="57"/>
+      <c r="J3" s="56"/>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2493,16 +3249,16 @@
       <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="61">
+      <c r="H4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="60">
         <f>AVERAGE(B7,C13,D19)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="60"/>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2521,14 +3277,14 @@
       <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="69">
+      <c r="H5" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="68">
         <f>AVERAGE(B8,C14,D20)</f>
         <v>8</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
@@ -2546,14 +3302,14 @@
       <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="63">
+      <c r="H6" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="62">
         <f>AVERAGE(B9,C15,D21)</f>
         <v>16</v>
       </c>
-      <c r="J6" s="63"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
@@ -2571,14 +3327,14 @@
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="63">
+      <c r="H7" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="62">
         <f t="shared" ref="I7:I10" si="0">AVERAGE(B10,C16,D22)</f>
         <v>24</v>
       </c>
-      <c r="J7" s="63"/>
+      <c r="J7" s="62"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
@@ -2597,16 +3353,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="63">
+        <v>82</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="62">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J8" s="63"/>
+      <c r="J8" s="62"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
@@ -2624,14 +3380,14 @@
       <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="63">
+      <c r="H9" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="62">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J9" s="63"/>
+      <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
@@ -2649,14 +3405,14 @@
       <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="65">
+      <c r="H10" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="64">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J10" s="65"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
@@ -2674,14 +3430,14 @@
       <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="72">
+      <c r="H11" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="71">
         <f>AVERAGE(B14,C20)</f>
         <v>63</v>
       </c>
-      <c r="J11" s="72"/>
+      <c r="J11" s="71"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
@@ -2699,14 +3455,14 @@
       <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="74">
+      <c r="H12" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="73">
         <f t="shared" ref="I12:I15" si="1">AVERAGE(B15,C21)</f>
         <v>72</v>
       </c>
-      <c r="J12" s="74"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
@@ -2724,14 +3480,14 @@
       <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="H13" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="74">
+      <c r="H13" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="73">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="J13" s="74"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
@@ -2750,16 +3506,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="74">
+        <v>83</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="73">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="J14" s="74"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
@@ -2777,14 +3533,14 @@
       <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="H15" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="74">
+      <c r="H15" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="73">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="J15" s="74"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
@@ -2802,14 +3558,14 @@
       <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="76">
+      <c r="H16" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="75">
         <f>AVERAGE(B19,C25)</f>
         <v>108</v>
       </c>
-      <c r="J16" s="76"/>
+      <c r="J16" s="75"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
@@ -2827,14 +3583,14 @@
       <c r="E17" s="5">
         <v>0</v>
       </c>
-      <c r="H17" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="78">
+      <c r="H17" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="77">
         <f>AVERAGE(B20)</f>
         <v>130</v>
       </c>
-      <c r="J17" s="78"/>
+      <c r="J17" s="77"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
@@ -2852,14 +3608,14 @@
       <c r="E18" s="5">
         <v>0</v>
       </c>
-      <c r="H18" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="80">
+      <c r="H18" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="79">
         <f t="shared" ref="I18:I22" si="2">AVERAGE(B21)</f>
         <v>140</v>
       </c>
-      <c r="J18" s="80"/>
+      <c r="J18" s="79"/>
     </row>
     <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
@@ -2877,14 +3633,14 @@
       <c r="E19" s="5">
         <v>0</v>
       </c>
-      <c r="H19" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="80">
+      <c r="H19" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="79">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="J19" s="80"/>
+      <c r="J19" s="79"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
@@ -2903,16 +3659,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="80">
+        <v>84</v>
+      </c>
+      <c r="H20" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="79">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="J20" s="80"/>
+      <c r="J20" s="79"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
@@ -2930,14 +3686,14 @@
       <c r="E21" s="5">
         <v>0</v>
       </c>
-      <c r="H21" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="80">
+      <c r="H21" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="79">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="J21" s="80"/>
+      <c r="J21" s="79"/>
     </row>
     <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
@@ -2955,14 +3711,14 @@
       <c r="E22" s="5">
         <v>0</v>
       </c>
-      <c r="H22" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="82">
+      <c r="H22" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="81">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="J22" s="82"/>
+      <c r="J22" s="81"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
@@ -2980,11 +3736,11 @@
       <c r="E23" s="5">
         <v>0</v>
       </c>
-      <c r="H23" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
+      <c r="H23" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
@@ -3003,13 +3759,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
+        <v>85</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
     </row>
     <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
@@ -3027,114 +3783,114 @@
       <c r="E25" s="5">
         <v>0</v>
       </c>
-      <c r="H25" s="64" t="s">
+      <c r="H25" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="68">
+        <v>2004</v>
+      </c>
+      <c r="B26" s="66">
+        <v>190</v>
+      </c>
+      <c r="C26" s="66">
+        <v>104</v>
+      </c>
+      <c r="D26" s="66">
+        <v>42</v>
+      </c>
+      <c r="E26" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="62">
+        <v>2005</v>
+      </c>
+      <c r="B27" s="65">
+        <v>200</v>
+      </c>
+      <c r="C27" s="65">
+        <v>112</v>
+      </c>
+      <c r="D27" s="65">
+        <v>48</v>
+      </c>
+      <c r="E27" s="65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="62">
+        <v>2006</v>
+      </c>
+      <c r="B28" s="65">
+        <v>210</v>
+      </c>
+      <c r="C28" s="65">
+        <v>120</v>
+      </c>
+      <c r="D28" s="65">
         <v>54</v>
       </c>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="69">
-        <v>2004</v>
-      </c>
-      <c r="B26" s="67">
-        <v>190</v>
-      </c>
-      <c r="C26" s="67">
-        <v>104</v>
-      </c>
-      <c r="D26" s="67">
-        <v>42</v>
-      </c>
-      <c r="E26" s="67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="63">
-        <v>2005</v>
-      </c>
-      <c r="B27" s="66">
-        <v>200</v>
-      </c>
-      <c r="C27" s="66">
-        <v>112</v>
-      </c>
-      <c r="D27" s="66">
-        <v>48</v>
-      </c>
-      <c r="E27" s="66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="63">
-        <v>2006</v>
-      </c>
-      <c r="B28" s="66">
-        <v>210</v>
-      </c>
-      <c r="C28" s="66">
-        <v>120</v>
-      </c>
-      <c r="D28" s="66">
-        <v>54</v>
-      </c>
-      <c r="E28" s="66">
+      <c r="E28" s="65">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="63">
+      <c r="A29" s="62">
         <v>2007</v>
       </c>
-      <c r="B29" s="66">
+      <c r="B29" s="65">
         <v>220</v>
       </c>
-      <c r="C29" s="66">
+      <c r="C29" s="65">
         <v>128</v>
       </c>
-      <c r="D29" s="66">
+      <c r="D29" s="65">
         <v>60</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="65">
         <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="63">
+      <c r="A30" s="62">
         <v>2008</v>
       </c>
-      <c r="B30" s="66">
+      <c r="B30" s="65">
         <v>230</v>
       </c>
-      <c r="C30" s="66">
+      <c r="C30" s="65">
         <v>136</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="65">
         <v>66</v>
       </c>
-      <c r="E30" s="66">
+      <c r="E30" s="65">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65">
+      <c r="A31" s="64">
         <v>2009</v>
       </c>
-      <c r="B31" s="68">
+      <c r="B31" s="67">
         <v>240</v>
       </c>
-      <c r="C31" s="68">
+      <c r="C31" s="67">
         <v>144</v>
       </c>
-      <c r="D31" s="68">
+      <c r="D31" s="67">
         <v>72</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="67">
         <v>24</v>
       </c>
     </row>
@@ -3147,7 +3903,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3156,7 +3912,7 @@
       </c>
       <c r="B33" s="23"/>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/Code/Exercises/DiD ATT.xlsx
+++ b/Code/Exercises/DiD ATT.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference/Code/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9311C43-7B6D-4B4E-8F48-4F06C8E21AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1422F3D-7C62-B842-AE92-4EDA5784A5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="500" windowWidth="45620" windowHeight="27120" activeTab="1" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
+    <workbookView xWindow="18940" yWindow="500" windowWidth="28760" windowHeight="27100" activeTab="4" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple DiD" sheetId="11" r:id="rId1"/>
     <sheet name="Dynamic ATT" sheetId="8" r:id="rId2"/>
     <sheet name="Constant ATT" sheetId="13" r:id="rId3"/>
     <sheet name="Event study" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="160">
   <si>
     <t>ATT(1986,t)</t>
   </si>
@@ -308,49 +310,214 @@
     <t>4. Are treatment effects "dynamic" or "constant"?</t>
   </si>
   <si>
-    <t xml:space="preserve">Line 32: I took a weighted average over all the ATT cells. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each cell is called a "group-time ATT" bc it's the 1986 group ATT in 2004. </t>
-  </si>
-  <si>
-    <t>I can actually calculate several weighted averages. I can do weighted averages per group (line 32), or a weighted average over all.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line 33: this is the "overall ATT" in the sense that it is a weighted average over all group-time ATT cells. </t>
-  </si>
-  <si>
-    <t>In line 33, I added all 60 ATT(g,t) together and divided by 60. SO the weight was equal to all cells and 1/60</t>
-  </si>
-  <si>
-    <t>In line 34, though, I found an overall ATT of 63.5.  If these are both based on the same cells, and they are both weighted averages</t>
-  </si>
-  <si>
-    <t>over all the cells, then why did I find 82 in line 33, but 63.5 in line 34?</t>
-  </si>
-  <si>
     <t>uniform weights of 1/60</t>
   </si>
   <si>
     <t xml:space="preserve">uniform weight of 1/4 to each ATT(g) in line 32, but each ATT(g) itself was using different weights. </t>
   </si>
   <si>
-    <t>This is MERELY to show you that the idea of the ATT is a weighted average over underlying smaller level ATT parameters, and the weights</t>
-  </si>
-  <si>
-    <t>chosen could be reasonable along a couple of idfferent dimensions -- we just need to know exactly what aggregate overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATT parameter we are trying to calculate in order to know how to weight the dat. </t>
-  </si>
-  <si>
-    <t>In all of these notice -- no matter how I weighted the data, I always get a positive ATT.  Positive 82; positive 63.5; every ATT cell is positive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So long as the weights are positive, then the aggregate will be a positive treatment. </t>
-  </si>
-  <si>
     <t>ATT(g) CS</t>
+  </si>
+  <si>
+    <t>Feasible ATT (uniform)</t>
+  </si>
+  <si>
+    <t>Feasible ATT (averaging ATT(g))</t>
+  </si>
+  <si>
+    <t>What exactly am I trying to estimate with differnetial timing and an event study?</t>
+  </si>
+  <si>
+    <t>Answer is -- you're trying to estimate weighted averages over underlying ATT cells.</t>
+  </si>
+  <si>
+    <t>The specific cells you're interested in are the ones corresponding to the relative time periods.</t>
+  </si>
+  <si>
+    <t>Can we use TWFE to get correct estimates of those relative event time aggregate</t>
+  </si>
+  <si>
+    <t>treatment parameters corresponding to an event study?</t>
+  </si>
+  <si>
+    <t>YES!  So long as you have homogenous treatment effects, but if you have heteorgenous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment effects and differential timing, the answe ris no. </t>
+  </si>
+  <si>
+    <t>TWFE</t>
+  </si>
+  <si>
+    <t>Donor pool</t>
+  </si>
+  <si>
+    <t>Weights</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>w4</t>
+  </si>
+  <si>
+    <t>w5</t>
+  </si>
+  <si>
+    <t>w6</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>w51</t>
+  </si>
+  <si>
+    <t>Two conditions:</t>
+  </si>
+  <si>
+    <t>1. Weights cannot be negative in this model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Weights must sum to one. </t>
+  </si>
+  <si>
+    <t>SUM OF Wj</t>
+  </si>
+  <si>
+    <t>Potential synth</t>
+  </si>
+  <si>
+    <t>Another potential synth</t>
+  </si>
+  <si>
+    <t>Column C and Column D are both synthetic controls for some treated state. Which one is "better"?</t>
+  </si>
+  <si>
+    <t>W*</t>
+  </si>
+  <si>
+    <t>w2*</t>
+  </si>
+  <si>
+    <t>w3*</t>
+  </si>
+  <si>
+    <t>w4*</t>
+  </si>
+  <si>
+    <t>w5*</t>
+  </si>
+  <si>
+    <t>w6*</t>
+  </si>
+  <si>
+    <t>w51*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment effects are positive -- for every group, in every period. </t>
+  </si>
+  <si>
+    <t>CS will not allow you to take a calculation to estimate an ATT(g,t) unless in that year (t) there is an untreated unit to use as a comparison.</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>different weighting schemes. This "uniform" divides by the number of ATT(g,t) I identified (equal weights)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This one uses different weights on the ATT(1986) than the ATT(1992). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1986 1981  -0.0548     0.0228       -0.1236      0.0140  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1982   0.0335     0.0300       -0.0571      0.1241  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1983  -0.0290     0.0233       -0.0993      0.0414  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1984   0.0515     0.0174       -0.0011      0.1042  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1985  -0.0468     0.0270       -0.1283      0.0347  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1986  10.0258     0.0215        9.9610     10.0906 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1987  20.0439     0.0182       19.9890     20.0989 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1988  30.0028     0.0226       29.9346     30.0710 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1989  40.0201     0.0218       39.9543     40.0860 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1990  50.0249     0.0268       49.9441     50.1057 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1991  60.0172     0.0322       59.9199     60.1144 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1992  69.9961     0.0307       69.9036     70.0886 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1993  80.0155     0.0225       79.9476     80.0835 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1994  89.9912     0.0406       89.8686     90.1137 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1995  99.9757     0.0492       99.8273    100.1240 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1996 110.0465     0.0407      109.9238    110.1693 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1997 120.0222     0.0285      119.9360    120.1083 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1998 129.9164     0.0359      129.8082    130.0246 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 1999 139.9235     0.0461      139.7844    140.0627 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 2000 150.0087     0.0394      149.8897    150.1278 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 2001 159.9702     0.0359      159.8618    160.0787 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 2002 169.9857     0.0409      169.8621    170.1092 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1986 2003 179.9810     0.0467      179.8401    180.1218 *</t>
   </si>
 </sst>
 </file>
@@ -656,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -855,7 +1022,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -865,8 +1031,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -880,6 +1044,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -897,12 +1062,37 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1856,10 +2046,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B26958-D2FD-B340-96F0-C0F0E677AC3F}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1867,674 +2057,653 @@
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="101" t="s">
+      <c r="B1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="73">
         <v>1980</v>
       </c>
-      <c r="B2" s="112">
-        <v>0</v>
-      </c>
-      <c r="C2" s="112">
-        <v>0</v>
-      </c>
-      <c r="D2" s="112">
-        <v>0</v>
-      </c>
-      <c r="E2" s="113">
-        <v>0</v>
-      </c>
-      <c r="G2" s="82"/>
-      <c r="H2" t="s">
+      <c r="B2" s="109">
+        <v>0</v>
+      </c>
+      <c r="C2" s="109">
+        <v>0</v>
+      </c>
+      <c r="D2" s="109">
+        <v>0</v>
+      </c>
+      <c r="E2" s="110">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="73">
         <v>1981</v>
       </c>
-      <c r="B3" s="112">
-        <v>0</v>
-      </c>
-      <c r="C3" s="112">
-        <v>0</v>
-      </c>
-      <c r="D3" s="112">
-        <v>0</v>
-      </c>
-      <c r="E3" s="113">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B3" s="109">
+        <v>0</v>
+      </c>
+      <c r="C3" s="109">
+        <v>0</v>
+      </c>
+      <c r="D3" s="109">
+        <v>0</v>
+      </c>
+      <c r="E3" s="110">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="73">
         <v>1982</v>
       </c>
-      <c r="B4" s="112">
-        <v>0</v>
-      </c>
-      <c r="C4" s="112">
-        <v>0</v>
-      </c>
-      <c r="D4" s="112">
-        <v>0</v>
-      </c>
-      <c r="E4" s="113">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B4" s="109">
+        <v>0</v>
+      </c>
+      <c r="C4" s="109">
+        <v>0</v>
+      </c>
+      <c r="D4" s="109">
+        <v>0</v>
+      </c>
+      <c r="E4" s="110">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="73">
         <v>1983</v>
       </c>
-      <c r="B5" s="112">
-        <v>0</v>
-      </c>
-      <c r="C5" s="112">
-        <v>0</v>
-      </c>
-      <c r="D5" s="112">
-        <v>0</v>
-      </c>
-      <c r="E5" s="113">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B5" s="109">
+        <v>0</v>
+      </c>
+      <c r="C5" s="109">
+        <v>0</v>
+      </c>
+      <c r="D5" s="109">
+        <v>0</v>
+      </c>
+      <c r="E5" s="110">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="73">
         <v>1984</v>
       </c>
-      <c r="B6" s="112">
-        <v>0</v>
-      </c>
-      <c r="C6" s="112">
-        <v>0</v>
-      </c>
-      <c r="D6" s="112">
-        <v>0</v>
-      </c>
-      <c r="E6" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="109">
+        <v>0</v>
+      </c>
+      <c r="C6" s="109">
+        <v>0</v>
+      </c>
+      <c r="D6" s="109">
+        <v>0</v>
+      </c>
+      <c r="E6" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="73">
         <v>1985</v>
       </c>
-      <c r="B7" s="112">
-        <v>0</v>
-      </c>
-      <c r="C7" s="112">
-        <v>0</v>
-      </c>
-      <c r="D7" s="112">
-        <v>0</v>
-      </c>
-      <c r="E7" s="113">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="B7" s="109">
+        <v>0</v>
+      </c>
+      <c r="C7" s="109">
+        <v>0</v>
+      </c>
+      <c r="D7" s="109">
+        <v>0</v>
+      </c>
+      <c r="E7" s="110">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="73">
         <v>1986</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="82">
         <v>10</v>
       </c>
-      <c r="C8" s="112">
-        <v>0</v>
-      </c>
-      <c r="D8" s="112">
-        <v>0</v>
-      </c>
-      <c r="E8" s="113">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="C8" s="109">
+        <v>0</v>
+      </c>
+      <c r="D8" s="109">
+        <v>0</v>
+      </c>
+      <c r="E8" s="110">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="73">
         <v>1987</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="83">
         <v>20</v>
       </c>
-      <c r="C9" s="112">
-        <v>0</v>
-      </c>
-      <c r="D9" s="112">
-        <v>0</v>
-      </c>
-      <c r="E9" s="113">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="C9" s="109">
+        <v>0</v>
+      </c>
+      <c r="D9" s="109">
+        <v>0</v>
+      </c>
+      <c r="E9" s="110">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="73">
         <v>1988</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="83">
         <v>30</v>
       </c>
-      <c r="C10" s="112">
-        <v>0</v>
-      </c>
-      <c r="D10" s="112">
-        <v>0</v>
-      </c>
-      <c r="E10" s="113">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="C10" s="109">
+        <v>0</v>
+      </c>
+      <c r="D10" s="109">
+        <v>0</v>
+      </c>
+      <c r="E10" s="110">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="73">
         <v>1989</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="83">
         <v>40</v>
       </c>
-      <c r="C11" s="112">
-        <v>0</v>
-      </c>
-      <c r="D11" s="112">
-        <v>0</v>
-      </c>
-      <c r="E11" s="113">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="C11" s="109">
+        <v>0</v>
+      </c>
+      <c r="D11" s="109">
+        <v>0</v>
+      </c>
+      <c r="E11" s="110">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="73">
         <v>1990</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="83">
         <v>50</v>
       </c>
-      <c r="C12" s="112">
-        <v>0</v>
-      </c>
-      <c r="D12" s="112">
-        <v>0</v>
-      </c>
-      <c r="E12" s="113">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="C12" s="109">
+        <v>0</v>
+      </c>
+      <c r="D12" s="109">
+        <v>0</v>
+      </c>
+      <c r="E12" s="110">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="73">
         <v>1991</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="83">
         <v>60</v>
       </c>
-      <c r="C13" s="112">
-        <v>0</v>
-      </c>
-      <c r="D13" s="112">
-        <v>0</v>
-      </c>
-      <c r="E13" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="109">
+        <v>0</v>
+      </c>
+      <c r="D13" s="109">
+        <v>0</v>
+      </c>
+      <c r="E13" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="73">
         <v>1992</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="83">
         <v>70</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="84">
         <v>8</v>
       </c>
-      <c r="D14" s="112">
-        <v>0</v>
-      </c>
-      <c r="E14" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D14" s="109">
+        <v>0</v>
+      </c>
+      <c r="E14" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="73">
         <v>1993</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="83">
         <v>80</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="85">
         <v>16</v>
       </c>
-      <c r="D15" s="112">
-        <v>0</v>
-      </c>
-      <c r="E15" s="113">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D15" s="109">
+        <v>0</v>
+      </c>
+      <c r="E15" s="110">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="73">
         <v>1994</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="83">
         <v>90</v>
       </c>
-      <c r="C16" s="86">
+      <c r="C16" s="85">
         <v>24</v>
       </c>
-      <c r="D16" s="112">
-        <v>0</v>
-      </c>
-      <c r="E16" s="113">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="109">
+        <v>0</v>
+      </c>
+      <c r="E16" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="73">
         <v>1995</v>
       </c>
-      <c r="B17" s="84">
+      <c r="B17" s="83">
         <v>100</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="85">
         <v>32</v>
       </c>
-      <c r="D17" s="112">
-        <v>0</v>
-      </c>
-      <c r="E17" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D17" s="109">
+        <v>0</v>
+      </c>
+      <c r="E17" s="110">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="73">
         <v>1996</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="83">
         <v>110</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="85">
         <v>40</v>
       </c>
-      <c r="D18" s="112">
-        <v>0</v>
-      </c>
-      <c r="E18" s="113">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="109">
+        <v>0</v>
+      </c>
+      <c r="E18" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="73">
         <v>1997</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="83">
         <v>120</v>
       </c>
-      <c r="C19" s="86">
+      <c r="C19" s="85">
         <v>48</v>
       </c>
-      <c r="D19" s="112">
-        <v>0</v>
-      </c>
-      <c r="E19" s="113">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="109">
+        <v>0</v>
+      </c>
+      <c r="E19" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="73">
         <v>1998</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="83">
         <v>130</v>
       </c>
-      <c r="C20" s="86">
+      <c r="C20" s="85">
         <v>56</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="86">
         <v>6</v>
       </c>
-      <c r="E20" s="113">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E20" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="73">
         <v>1999</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="83">
         <v>140</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="85">
         <v>64</v>
       </c>
-      <c r="D21" s="88">
+      <c r="D21" s="87">
         <v>12</v>
       </c>
-      <c r="E21" s="113">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E21" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="73">
         <v>2000</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="83">
         <v>150</v>
       </c>
-      <c r="C22" s="86">
+      <c r="C22" s="85">
         <v>72</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="87">
         <v>18</v>
       </c>
-      <c r="E22" s="113">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E22" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="73">
         <v>2001</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="83">
         <v>160</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="85">
         <v>80</v>
       </c>
-      <c r="D23" s="88">
+      <c r="D23" s="87">
         <v>24</v>
       </c>
-      <c r="E23" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E23" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="73">
         <v>2002</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="83">
         <v>170</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="85">
         <v>88</v>
       </c>
-      <c r="D24" s="88">
+      <c r="D24" s="87">
         <v>30</v>
       </c>
-      <c r="E24" s="113">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="73">
         <v>2003</v>
       </c>
-      <c r="B25" s="84">
+      <c r="B25" s="83">
         <v>180</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="85">
         <v>96</v>
       </c>
-      <c r="D25" s="88">
+      <c r="D25" s="87">
         <v>36</v>
       </c>
-      <c r="E25" s="113">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="109">
+      <c r="E25" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="107">
         <v>2004</v>
       </c>
-      <c r="B26" s="105">
+      <c r="B26" s="103">
         <v>190</v>
       </c>
-      <c r="C26" s="105">
+      <c r="C26" s="103">
         <v>104</v>
       </c>
-      <c r="D26" s="105">
+      <c r="D26" s="103">
         <v>42</v>
       </c>
-      <c r="E26" s="105">
+      <c r="E26" s="103">
         <v>4</v>
       </c>
-      <c r="I26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="104">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="102">
         <v>2005</v>
       </c>
-      <c r="B27" s="106">
+      <c r="B27" s="104">
         <v>200</v>
       </c>
-      <c r="C27" s="106">
+      <c r="C27" s="104">
         <v>112</v>
       </c>
-      <c r="D27" s="106">
+      <c r="D27" s="104">
         <v>48</v>
       </c>
-      <c r="E27" s="106">
+      <c r="E27" s="104">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="104">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="102">
         <v>2006</v>
       </c>
-      <c r="B28" s="106">
+      <c r="B28" s="104">
         <v>210</v>
       </c>
-      <c r="C28" s="106">
+      <c r="C28" s="104">
         <v>120</v>
       </c>
-      <c r="D28" s="106">
+      <c r="D28" s="104">
         <v>54</v>
       </c>
-      <c r="E28" s="106">
+      <c r="E28" s="104">
         <v>12</v>
       </c>
-      <c r="H28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="104">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="102">
         <v>2007</v>
       </c>
-      <c r="B29" s="106">
+      <c r="B29" s="104">
         <v>220</v>
       </c>
-      <c r="C29" s="106">
+      <c r="C29" s="104">
         <v>128</v>
       </c>
-      <c r="D29" s="106">
+      <c r="D29" s="104">
         <v>60</v>
       </c>
-      <c r="E29" s="106">
+      <c r="E29" s="104">
         <v>16</v>
       </c>
-      <c r="H29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="104">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="102">
         <v>2008</v>
       </c>
-      <c r="B30" s="106">
+      <c r="B30" s="104">
         <v>230</v>
       </c>
-      <c r="C30" s="106">
+      <c r="C30" s="104">
         <v>136</v>
       </c>
-      <c r="D30" s="106">
+      <c r="D30" s="104">
         <v>66</v>
       </c>
-      <c r="E30" s="106">
+      <c r="E30" s="104">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="107">
+    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="105">
         <v>2009</v>
       </c>
-      <c r="B31" s="108">
+      <c r="B31" s="106">
         <v>240</v>
       </c>
-      <c r="C31" s="108">
+      <c r="C31" s="106">
         <v>144</v>
       </c>
-      <c r="D31" s="108">
+      <c r="D31" s="106">
         <v>72</v>
       </c>
-      <c r="E31" s="108">
+      <c r="E31" s="106">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="89" t="s">
+    <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="99">
+      <c r="B32" s="97">
         <f>AVERAGE(B8:B31)</f>
         <v>125</v>
       </c>
-      <c r="C32" s="99">
+      <c r="C32" s="97">
         <f>AVERAGE(C14:C31)</f>
         <v>76</v>
       </c>
-      <c r="D32" s="99">
+      <c r="D32" s="97">
         <f>AVERAGE(D20:D31)</f>
         <v>39</v>
       </c>
-      <c r="E32" s="92">
+      <c r="E32" s="89">
         <f>AVERAGE(E26:E31)</f>
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="99">
+      <c r="A33" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="113">
         <f>AVERAGE(B8:B25)</f>
         <v>95</v>
       </c>
-      <c r="C33" s="90">
+      <c r="C33" s="114">
         <f>AVERAGE(C14:C25)</f>
         <v>52</v>
       </c>
-      <c r="D33" s="91">
+      <c r="D33" s="96">
         <f>AVERAGE(D20:D25)</f>
         <v>21</v>
       </c>
-      <c r="E33" s="92"/>
+      <c r="E33" s="115" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95" t="s">
+      <c r="A34" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="96">
+      <c r="B34" s="93">
         <f>AVERAGE(B8:B31,C14:C31,D20:D31,E26:E31)</f>
         <v>82</v>
       </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="35" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="94">
+      <c r="B35" s="91">
         <f>AVERAGE(B32:E32)</f>
         <v>63.5</v>
       </c>
-      <c r="C35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="110">
-        <f>AVERAGE(B8:B25,C14:C25,D20:D25)</f>
+    </row>
+    <row r="36" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="112">
+        <f>AVERAGE(D20:D25,C14:C25,B8:B25)</f>
         <v>68.333333333333329</v>
+      </c>
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="111" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="112">
+        <f>AVERAGE(B33:D33)</f>
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2546,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1B4EB1-DB07-9140-A162-D93248F2BA98}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2556,16 +2725,16 @@
       <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="101" t="s">
+      <c r="B1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="101" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2675,7 +2844,7 @@
       <c r="A8" s="17">
         <v>1986</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="82">
         <v>10</v>
       </c>
       <c r="C8" s="4">
@@ -2692,7 +2861,7 @@
       <c r="A9" s="17">
         <v>1987</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="83">
         <v>10</v>
       </c>
       <c r="C9" s="4">
@@ -2709,7 +2878,7 @@
       <c r="A10" s="17">
         <v>1988</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="83">
         <v>10</v>
       </c>
       <c r="C10" s="4">
@@ -2726,7 +2895,7 @@
       <c r="A11" s="17">
         <v>1989</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="83">
         <v>10</v>
       </c>
       <c r="C11" s="4">
@@ -2743,7 +2912,7 @@
       <c r="A12" s="17">
         <v>1990</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="83">
         <v>10</v>
       </c>
       <c r="C12" s="4">
@@ -2760,7 +2929,7 @@
       <c r="A13" s="17">
         <v>1991</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="83">
         <v>10</v>
       </c>
       <c r="C13" s="4">
@@ -2777,10 +2946,10 @@
       <c r="A14" s="17">
         <v>1992</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="83">
         <v>10</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="84">
         <v>8</v>
       </c>
       <c r="D14" s="4">
@@ -2794,10 +2963,10 @@
       <c r="A15" s="17">
         <v>1993</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="83">
         <v>10</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="85">
         <v>8</v>
       </c>
       <c r="D15" s="4">
@@ -2811,10 +2980,10 @@
       <c r="A16" s="17">
         <v>1994</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="83">
         <v>10</v>
       </c>
-      <c r="C16" s="86">
+      <c r="C16" s="85">
         <v>8</v>
       </c>
       <c r="D16" s="4">
@@ -2828,10 +2997,10 @@
       <c r="A17" s="17">
         <v>1995</v>
       </c>
-      <c r="B17" s="84">
+      <c r="B17" s="83">
         <v>10</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="85">
         <v>8</v>
       </c>
       <c r="D17" s="4">
@@ -2845,10 +3014,10 @@
       <c r="A18" s="17">
         <v>1996</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="83">
         <v>10</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="85">
         <v>8</v>
       </c>
       <c r="D18" s="4">
@@ -2862,10 +3031,10 @@
       <c r="A19" s="17">
         <v>1997</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="83">
         <v>10</v>
       </c>
-      <c r="C19" s="86">
+      <c r="C19" s="85">
         <v>8</v>
       </c>
       <c r="D19" s="4">
@@ -2879,13 +3048,13 @@
       <c r="A20" s="17">
         <v>1998</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="83">
         <v>10</v>
       </c>
-      <c r="C20" s="86">
+      <c r="C20" s="85">
         <v>8</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="86">
         <v>6</v>
       </c>
       <c r="E20" s="5">
@@ -2896,13 +3065,13 @@
       <c r="A21" s="17">
         <v>1999</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="83">
         <v>10</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="85">
         <v>8</v>
       </c>
-      <c r="D21" s="88">
+      <c r="D21" s="87">
         <v>6</v>
       </c>
       <c r="E21" s="5">
@@ -2913,13 +3082,13 @@
       <c r="A22" s="17">
         <v>2000</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="83">
         <v>10</v>
       </c>
-      <c r="C22" s="86">
+      <c r="C22" s="85">
         <v>8</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="87">
         <v>6</v>
       </c>
       <c r="E22" s="5">
@@ -2930,13 +3099,13 @@
       <c r="A23" s="17">
         <v>2001</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="83">
         <v>10</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="85">
         <v>8</v>
       </c>
-      <c r="D23" s="88">
+      <c r="D23" s="87">
         <v>6</v>
       </c>
       <c r="E23" s="5">
@@ -2947,13 +3116,13 @@
       <c r="A24" s="17">
         <v>2002</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="83">
         <v>10</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="85">
         <v>8</v>
       </c>
-      <c r="D24" s="88">
+      <c r="D24" s="87">
         <v>6</v>
       </c>
       <c r="E24" s="5">
@@ -2964,13 +3133,13 @@
       <c r="A25" s="17">
         <v>2003</v>
       </c>
-      <c r="B25" s="84">
+      <c r="B25" s="83">
         <v>10</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="85">
         <v>8</v>
       </c>
-      <c r="D25" s="88">
+      <c r="D25" s="87">
         <v>6</v>
       </c>
       <c r="E25" s="5">
@@ -2981,13 +3150,13 @@
       <c r="A26" s="17">
         <v>2004</v>
       </c>
-      <c r="B26" s="84">
+      <c r="B26" s="83">
         <v>10</v>
       </c>
-      <c r="C26" s="86">
+      <c r="C26" s="85">
         <v>8</v>
       </c>
-      <c r="D26" s="88">
+      <c r="D26" s="87">
         <v>6</v>
       </c>
       <c r="E26" s="53">
@@ -2998,13 +3167,13 @@
       <c r="A27" s="17">
         <v>2005</v>
       </c>
-      <c r="B27" s="84">
+      <c r="B27" s="83">
         <v>10</v>
       </c>
-      <c r="C27" s="86">
+      <c r="C27" s="85">
         <v>8</v>
       </c>
-      <c r="D27" s="88">
+      <c r="D27" s="87">
         <v>6</v>
       </c>
       <c r="E27" s="52">
@@ -3015,13 +3184,13 @@
       <c r="A28" s="17">
         <v>2006</v>
       </c>
-      <c r="B28" s="84">
+      <c r="B28" s="83">
         <v>10</v>
       </c>
-      <c r="C28" s="86">
+      <c r="C28" s="85">
         <v>8</v>
       </c>
-      <c r="D28" s="88">
+      <c r="D28" s="87">
         <v>6</v>
       </c>
       <c r="E28" s="52">
@@ -3032,13 +3201,13 @@
       <c r="A29" s="17">
         <v>2007</v>
       </c>
-      <c r="B29" s="84">
+      <c r="B29" s="83">
         <v>10</v>
       </c>
-      <c r="C29" s="86">
+      <c r="C29" s="85">
         <v>8</v>
       </c>
-      <c r="D29" s="88">
+      <c r="D29" s="87">
         <v>6</v>
       </c>
       <c r="E29" s="52">
@@ -3049,13 +3218,13 @@
       <c r="A30" s="17">
         <v>2008</v>
       </c>
-      <c r="B30" s="84">
+      <c r="B30" s="83">
         <v>10</v>
       </c>
-      <c r="C30" s="86">
+      <c r="C30" s="85">
         <v>8</v>
       </c>
-      <c r="D30" s="88">
+      <c r="D30" s="87">
         <v>6</v>
       </c>
       <c r="E30" s="52">
@@ -3066,13 +3235,13 @@
       <c r="A31" s="18">
         <v>2009</v>
       </c>
-      <c r="B31" s="84">
+      <c r="B31" s="83">
         <v>10</v>
       </c>
-      <c r="C31" s="86">
+      <c r="C31" s="85">
         <v>8</v>
       </c>
-      <c r="D31" s="88">
+      <c r="D31" s="87">
         <v>6</v>
       </c>
       <c r="E31" s="52">
@@ -3080,55 +3249,55 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="99">
+      <c r="B32" s="97">
         <f>AVERAGE(B8:B31)</f>
         <v>10</v>
       </c>
-      <c r="C32" s="99">
+      <c r="C32" s="97">
         <f>AVERAGE(C14:C31)</f>
         <v>8</v>
       </c>
-      <c r="D32" s="99">
+      <c r="D32" s="97">
         <f>AVERAGE(D20:D31)</f>
         <v>6</v>
       </c>
-      <c r="E32" s="92">
+      <c r="E32" s="89">
         <f>AVERAGE(E26:E31)</f>
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95" t="s">
+      <c r="A33" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="96">
+      <c r="B33" s="93">
         <f>AVERAGE(B8:B31,C14:C31,D20:D31,E26:E31)</f>
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="94">
+      <c r="B34" s="91">
         <f>AVERAGE(B32:E32)</f>
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="98"/>
+      <c r="B35" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3140,11 +3309,12 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3173,6 +3343,9 @@
       <c r="J1" s="54" t="s">
         <v>54</v>
       </c>
+      <c r="K1" s="54" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
@@ -3257,6 +3430,9 @@
         <v>0</v>
       </c>
       <c r="J4" s="60"/>
+      <c r="K4">
+        <v>13.776852</v>
+      </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
@@ -3310,6 +3486,9 @@
         <v>16</v>
       </c>
       <c r="J6" s="62"/>
+      <c r="L6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
@@ -3363,6 +3542,9 @@
         <v>32</v>
       </c>
       <c r="J8" s="62"/>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
@@ -3388,6 +3570,9 @@
         <v>40</v>
       </c>
       <c r="J9" s="62"/>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
@@ -3438,6 +3623,9 @@
         <v>63</v>
       </c>
       <c r="J11" s="71"/>
+      <c r="L11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
@@ -3463,6 +3651,9 @@
         <v>72</v>
       </c>
       <c r="J12" s="73"/>
+      <c r="L12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
@@ -3516,6 +3707,9 @@
         <v>90</v>
       </c>
       <c r="J14" s="73"/>
+      <c r="L14" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
@@ -3541,6 +3735,9 @@
         <v>99</v>
       </c>
       <c r="J15" s="73"/>
+      <c r="L15" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
@@ -3924,4 +4121,793 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251C0CA7-9A16-2046-AD4A-7480AD27DC99}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="73">
+        <v>1980</v>
+      </c>
+      <c r="B2" s="109">
+        <v>0</v>
+      </c>
+      <c r="C2" s="109">
+        <v>0</v>
+      </c>
+      <c r="D2" s="109">
+        <v>0</v>
+      </c>
+      <c r="E2" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="73">
+        <v>1981</v>
+      </c>
+      <c r="B3" s="109">
+        <v>-5.4800000000000001E-2</v>
+      </c>
+      <c r="C3" s="109">
+        <v>0</v>
+      </c>
+      <c r="D3" s="109">
+        <v>0</v>
+      </c>
+      <c r="E3" s="110">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="73">
+        <v>1982</v>
+      </c>
+      <c r="B4" s="109">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="C4" s="109">
+        <v>0</v>
+      </c>
+      <c r="D4" s="109">
+        <v>0</v>
+      </c>
+      <c r="E4" s="110">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="73">
+        <v>1983</v>
+      </c>
+      <c r="B5" s="109">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="C5" s="109">
+        <v>0</v>
+      </c>
+      <c r="D5" s="109">
+        <v>0</v>
+      </c>
+      <c r="E5" s="110">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="73">
+        <v>1984</v>
+      </c>
+      <c r="B6" s="109">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="C6" s="109">
+        <v>0</v>
+      </c>
+      <c r="D6" s="109">
+        <v>0</v>
+      </c>
+      <c r="E6" s="110">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73">
+        <v>1985</v>
+      </c>
+      <c r="B7" s="109">
+        <v>-4.6800000000000001E-2</v>
+      </c>
+      <c r="C7" s="109">
+        <v>0</v>
+      </c>
+      <c r="D7" s="109">
+        <v>0</v>
+      </c>
+      <c r="E7" s="110">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="73">
+        <v>1986</v>
+      </c>
+      <c r="B8" s="82">
+        <v>10.0258</v>
+      </c>
+      <c r="C8" s="109">
+        <v>0</v>
+      </c>
+      <c r="D8" s="109">
+        <v>0</v>
+      </c>
+      <c r="E8" s="110">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="73">
+        <v>1987</v>
+      </c>
+      <c r="B9" s="83">
+        <v>20.043900000000001</v>
+      </c>
+      <c r="C9" s="109">
+        <v>0</v>
+      </c>
+      <c r="D9" s="109">
+        <v>0</v>
+      </c>
+      <c r="E9" s="110">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="73">
+        <v>1988</v>
+      </c>
+      <c r="B10" s="83">
+        <v>30.002800000000001</v>
+      </c>
+      <c r="C10" s="109">
+        <v>0</v>
+      </c>
+      <c r="D10" s="109">
+        <v>0</v>
+      </c>
+      <c r="E10" s="110">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="73">
+        <v>1989</v>
+      </c>
+      <c r="B11" s="83">
+        <v>40.020099999999999</v>
+      </c>
+      <c r="C11" s="109">
+        <v>0</v>
+      </c>
+      <c r="D11" s="109">
+        <v>0</v>
+      </c>
+      <c r="E11" s="110">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="73">
+        <v>1990</v>
+      </c>
+      <c r="B12" s="83">
+        <v>50</v>
+      </c>
+      <c r="C12" s="109">
+        <v>0</v>
+      </c>
+      <c r="D12" s="109">
+        <v>0</v>
+      </c>
+      <c r="E12" s="110">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="73">
+        <v>1991</v>
+      </c>
+      <c r="B13" s="83">
+        <v>60</v>
+      </c>
+      <c r="C13" s="109">
+        <v>0</v>
+      </c>
+      <c r="D13" s="109">
+        <v>0</v>
+      </c>
+      <c r="E13" s="110">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="73">
+        <v>1992</v>
+      </c>
+      <c r="B14" s="83">
+        <v>70</v>
+      </c>
+      <c r="C14" s="84">
+        <v>8</v>
+      </c>
+      <c r="D14" s="109">
+        <v>0</v>
+      </c>
+      <c r="E14" s="110">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="73">
+        <v>1993</v>
+      </c>
+      <c r="B15" s="83">
+        <v>80</v>
+      </c>
+      <c r="C15" s="85">
+        <v>16</v>
+      </c>
+      <c r="D15" s="109">
+        <v>0</v>
+      </c>
+      <c r="E15" s="110">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="73">
+        <v>1994</v>
+      </c>
+      <c r="B16" s="83">
+        <v>90</v>
+      </c>
+      <c r="C16" s="85">
+        <v>24</v>
+      </c>
+      <c r="D16" s="109">
+        <v>0</v>
+      </c>
+      <c r="E16" s="110">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="73">
+        <v>1995</v>
+      </c>
+      <c r="B17" s="83">
+        <v>100</v>
+      </c>
+      <c r="C17" s="85">
+        <v>32</v>
+      </c>
+      <c r="D17" s="109">
+        <v>0</v>
+      </c>
+      <c r="E17" s="110">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="73">
+        <v>1996</v>
+      </c>
+      <c r="B18" s="83">
+        <v>110</v>
+      </c>
+      <c r="C18" s="85">
+        <v>40</v>
+      </c>
+      <c r="D18" s="109">
+        <v>0</v>
+      </c>
+      <c r="E18" s="110">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="73">
+        <v>1997</v>
+      </c>
+      <c r="B19" s="83">
+        <v>120</v>
+      </c>
+      <c r="C19" s="85">
+        <v>48</v>
+      </c>
+      <c r="D19" s="109">
+        <v>0</v>
+      </c>
+      <c r="E19" s="110">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="73">
+        <v>1998</v>
+      </c>
+      <c r="B20" s="83">
+        <v>130</v>
+      </c>
+      <c r="C20" s="85">
+        <v>56</v>
+      </c>
+      <c r="D20" s="86">
+        <v>6</v>
+      </c>
+      <c r="E20" s="110">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="73">
+        <v>1999</v>
+      </c>
+      <c r="B21" s="83">
+        <v>140</v>
+      </c>
+      <c r="C21" s="85">
+        <v>64</v>
+      </c>
+      <c r="D21" s="87">
+        <v>12</v>
+      </c>
+      <c r="E21" s="110">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="73">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="83">
+        <v>150</v>
+      </c>
+      <c r="C22" s="85">
+        <v>72</v>
+      </c>
+      <c r="D22" s="87">
+        <v>18</v>
+      </c>
+      <c r="E22" s="110">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="73">
+        <v>2001</v>
+      </c>
+      <c r="B23" s="83">
+        <v>160</v>
+      </c>
+      <c r="C23" s="85">
+        <v>80</v>
+      </c>
+      <c r="D23" s="87">
+        <v>24</v>
+      </c>
+      <c r="E23" s="110">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="73">
+        <v>2002</v>
+      </c>
+      <c r="B24" s="83">
+        <v>170</v>
+      </c>
+      <c r="C24" s="85">
+        <v>88</v>
+      </c>
+      <c r="D24" s="87">
+        <v>30</v>
+      </c>
+      <c r="E24" s="110">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="75">
+        <v>2003</v>
+      </c>
+      <c r="B25" s="122">
+        <v>179.98099999999999</v>
+      </c>
+      <c r="C25" s="123">
+        <v>96</v>
+      </c>
+      <c r="D25" s="21">
+        <v>36</v>
+      </c>
+      <c r="E25" s="124">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="107">
+        <v>2004</v>
+      </c>
+      <c r="B26" s="103">
+        <v>190</v>
+      </c>
+      <c r="C26" s="103">
+        <v>104</v>
+      </c>
+      <c r="D26" s="103">
+        <v>42</v>
+      </c>
+      <c r="E26" s="103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="102">
+        <v>2005</v>
+      </c>
+      <c r="B27" s="104">
+        <v>200</v>
+      </c>
+      <c r="C27" s="104">
+        <v>112</v>
+      </c>
+      <c r="D27" s="104">
+        <v>48</v>
+      </c>
+      <c r="E27" s="104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="102">
+        <v>2006</v>
+      </c>
+      <c r="B28" s="104">
+        <v>210</v>
+      </c>
+      <c r="C28" s="104">
+        <v>120</v>
+      </c>
+      <c r="D28" s="104">
+        <v>54</v>
+      </c>
+      <c r="E28" s="104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="102">
+        <v>2007</v>
+      </c>
+      <c r="B29" s="104">
+        <v>220</v>
+      </c>
+      <c r="C29" s="104">
+        <v>128</v>
+      </c>
+      <c r="D29" s="104">
+        <v>60</v>
+      </c>
+      <c r="E29" s="104">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="102">
+        <v>2008</v>
+      </c>
+      <c r="B30" s="104">
+        <v>230</v>
+      </c>
+      <c r="C30" s="104">
+        <v>136</v>
+      </c>
+      <c r="D30" s="104">
+        <v>66</v>
+      </c>
+      <c r="E30" s="104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="105">
+        <v>2009</v>
+      </c>
+      <c r="B31" s="106">
+        <v>240</v>
+      </c>
+      <c r="C31" s="106">
+        <v>144</v>
+      </c>
+      <c r="D31" s="106">
+        <v>72</v>
+      </c>
+      <c r="E31" s="106">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D272A3-FE33-B441-B204-2A2BAB3C8471}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.33203125" style="120" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="120" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="120"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="121" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="120">
+        <v>0</v>
+      </c>
+      <c r="D2" s="120">
+        <v>0.75</v>
+      </c>
+      <c r="E2" s="120" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="120">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="120">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="120" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="120">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="120">
+        <v>0</v>
+      </c>
+      <c r="E4" s="120" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="120">
+        <v>0</v>
+      </c>
+      <c r="D5" s="120">
+        <v>0</v>
+      </c>
+      <c r="E5" s="120" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="120">
+        <v>0</v>
+      </c>
+      <c r="D6" s="120">
+        <v>0</v>
+      </c>
+      <c r="E6" s="120" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="120">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="120">
+        <v>0.15</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="120">
+        <v>1</v>
+      </c>
+      <c r="D9" s="120">
+        <v>1</v>
+      </c>
+      <c r="E9" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Code/Exercises/DiD ATT.xlsx
+++ b/Code/Exercises/DiD ATT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Causal-Inference/Code/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1422F3D-7C62-B842-AE92-4EDA5784A5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D37A84E-1C3B-124B-A959-80FCD24F306E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18940" yWindow="500" windowWidth="28760" windowHeight="27100" activeTab="4" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
+    <workbookView xWindow="14460" yWindow="500" windowWidth="34760" windowHeight="27100" activeTab="5" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple DiD" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="198">
   <si>
     <t>ATT(1986,t)</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Relative year</t>
   </si>
   <si>
-    <t>CATT</t>
-  </si>
-  <si>
     <t>t-3</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>All groups</t>
   </si>
   <si>
-    <t>1986 and 1992 group</t>
-  </si>
-  <si>
     <t>1986 group only</t>
   </si>
   <si>
@@ -518,6 +512,126 @@
   </si>
   <si>
     <t xml:space="preserve">  1986 2003 179.9810     0.0467      179.8401    180.1218 *</t>
+  </si>
+  <si>
+    <t>Parallel trend assumption</t>
+  </si>
+  <si>
+    <t>E[Delta Y0 | G=1] = E[Delta Y0 | C=1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That C is either "all the units that are never treated", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"all the units that haven't yet been treated" </t>
+  </si>
+  <si>
+    <t>1986, 1992, 1998</t>
+  </si>
+  <si>
+    <t>1986, 1992 group</t>
+  </si>
+  <si>
+    <t>When we are estimating aggregations of leads and lags, notice that not every group has the same number of leads and lags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and therefore the aggregations are changing in their dynamics. </t>
+  </si>
+  <si>
+    <t>goes up by 8 per year</t>
+  </si>
+  <si>
+    <t>goes up by 9 per year</t>
+  </si>
+  <si>
+    <t>goes up by 10 per year</t>
+  </si>
+  <si>
+    <t>(10+8+6)/3 = 8</t>
+  </si>
+  <si>
+    <t>(10+8)/2 = 9</t>
+  </si>
+  <si>
+    <t>With differential timing, even though your sample is balanced in *calendar time*, it isn't balanced in *relative event time*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's because not every group has the same number of post and pre treatment periods (by definition). </t>
+  </si>
+  <si>
+    <t>Callaway and Sant'anna call those cells on the left "group-time ATT"</t>
+  </si>
+  <si>
+    <t>ATT(g,t) notation</t>
+  </si>
+  <si>
+    <t>Sun and Abraham probably have the better phrase. They call it the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"cohort ATT" (CATT). </t>
+  </si>
+  <si>
+    <t>1986 in SA language is a "cohort" not a group</t>
+  </si>
+  <si>
+    <t>But they mean the same thing</t>
+  </si>
+  <si>
+    <t>ATT(1986,1990) = 50</t>
+  </si>
+  <si>
+    <t>CATT(1986,1990) = 50</t>
+  </si>
+  <si>
+    <t>CATT l</t>
+  </si>
+  <si>
+    <t>CS is going to estimate each of those leads and lags using whatever is untreated at that relative time period for any of the groups</t>
+  </si>
+  <si>
+    <t>SA is going to do the same thing but instead of using not-yet-treated it uses the last treated group as its comparison ONLY.</t>
+  </si>
+  <si>
+    <t>Covariates</t>
+  </si>
+  <si>
+    <t>Percent black</t>
+  </si>
+  <si>
+    <t>Gender ratio</t>
+  </si>
+  <si>
+    <t>Police per capita</t>
+  </si>
+  <si>
+    <t>Household income per capita</t>
+  </si>
+  <si>
+    <t>Potential V</t>
+  </si>
+  <si>
+    <t>Another potential V</t>
+  </si>
+  <si>
+    <t>V are weighted the "importance" of each of these covariates</t>
+  </si>
+  <si>
+    <t>when you are minimizing X1-X0W(V)</t>
+  </si>
+  <si>
+    <t>Another Potential V</t>
+  </si>
+  <si>
+    <t>We have way too much discretion over the picking of V*</t>
+  </si>
+  <si>
+    <t>And unfortunately, whatever we pick for V is going to affect</t>
+  </si>
+  <si>
+    <t>the data driven approach to estimating W*(V*)</t>
+  </si>
+  <si>
+    <t>REMEMBER: Reproduce the fit of the outcome pre-treatment with a synthetic control.</t>
   </si>
 </sst>
 </file>
@@ -541,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,8 +764,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -819,11 +939,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -831,9 +960,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,7 +1105,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1093,6 +1218,84 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1415,44 +1618,44 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="5" width="10.83203125" style="11"/>
+    <col min="3" max="5" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>79</v>
+      <c r="F1" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
+      <c r="A2" s="21">
         <v>1980</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="22">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23">
         <v>3.577712</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="23">
         <v>3.577712</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="24">
         <v>0</v>
       </c>
       <c r="I2" t="s">
@@ -1460,20 +1663,20 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="25">
         <v>1981</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27">
         <v>4.5244429999999998</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="27">
         <v>4.5244429999999998</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="28">
         <v>0</v>
       </c>
       <c r="I3" t="s">
@@ -1481,44 +1684,44 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+      <c r="A4" s="25">
         <v>1982</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27">
         <v>5.5718319999999997</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="27">
         <v>5.5718319999999997</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="25">
         <v>1983</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="26">
         <v>1</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27">
         <v>6.5310969999999999</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="27">
         <v>6.5310969999999999</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="28">
         <v>0</v>
       </c>
       <c r="I5" t="s">
@@ -1526,514 +1729,514 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="25">
         <v>1984</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="26">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27">
         <v>7.5666770000000003</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="27">
         <v>7.5666770000000003</v>
       </c>
-      <c r="F6" s="31">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="29">
         <v>1985</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="30">
         <v>1</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31">
         <v>8.5579839999999994</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="31">
         <v>8.5579839999999994</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="36">
+      <c r="A8" s="33">
         <v>1986</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="35">
         <v>19.554120000000001</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="46">
         <v>9.5556040000000007</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="35">
         <v>19.554120000000001</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="36">
+      <c r="A9" s="33">
         <v>1987</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="34">
         <v>1</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="35">
         <v>30.59122</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="47">
         <v>10.590809999999999</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="35">
         <v>30.59122</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="36">
+      <c r="A10" s="33">
         <v>1988</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="35">
         <v>41.546419999999998</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="47">
         <v>11.526149999999999</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="35">
         <v>41.546419999999998</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="36">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="11">
+        <v>58</v>
+      </c>
+      <c r="H10" s="8">
         <f>AVERAGE(D8:D12)</f>
         <v>11.561156800000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="36">
+      <c r="A11" s="33">
         <v>1989</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="34">
         <v>1</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="35">
         <v>52.568399999999997</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="47">
         <v>12.575060000000001</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="35">
         <v>52.568399999999997</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="A12" s="37">
         <v>1990</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="38">
         <v>1</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="39">
         <v>63.564300000000003</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="48">
         <v>13.558160000000001</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="39">
         <v>63.564300000000003</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+      <c r="A13" s="21">
         <v>1980</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="22">
         <v>2</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23">
         <v>3.592012</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="23">
         <v>3.592012</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="A14" s="25">
         <v>1981</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="26">
         <v>2</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27">
         <v>4.5633119999999998</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="27">
         <v>4.5633119999999998</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
+      <c r="A15" s="25">
         <v>1982</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="26">
         <v>2</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27">
         <v>5.586697</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="27">
         <v>5.586697</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="28">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+      <c r="A16" s="25">
         <v>1983</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="26">
         <v>2</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27">
         <v>6.5448399999999998</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="27">
         <v>6.5448399999999998</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="28">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="11">
+        <v>57</v>
+      </c>
+      <c r="I16" s="8">
         <f>AVERAGE(D2:D7)</f>
         <v>6.0549574999999995</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="8">
         <f>AVERAGE(D13:D18)</f>
         <v>6.0696123333333345</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
+      <c r="A17" s="25">
         <v>1984</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="26">
         <v>2</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27">
         <v>7.5540529999999997</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="27">
         <v>7.5540529999999997</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="28">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="11">
+        <v>58</v>
+      </c>
+      <c r="I17" s="8">
         <f>AVERAGE(D8:D12)</f>
         <v>11.561156800000001</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="8">
         <f>AVERAGE(D19:D23)</f>
         <v>11.58881</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="29">
         <v>1985</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="30">
         <v>2</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31">
         <v>8.5767600000000002</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="31">
         <v>8.5767600000000002</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="32">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="44">
+        <v>79</v>
+      </c>
+      <c r="I18" s="41">
         <f>I17-I16</f>
         <v>5.5061993000000014</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="41">
         <f>J17-J16</f>
         <v>5.519197666666666</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="36">
+      <c r="A19" s="33">
         <v>1986</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="34">
         <v>2</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38">
+      <c r="C19" s="35"/>
+      <c r="D19" s="35">
         <v>9.5811200000000003</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="35">
         <v>9.5811200000000003</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="36">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="11">
+        <v>73</v>
+      </c>
+      <c r="I19" s="8">
         <f>(I17-I16) - (J17-J16)</f>
         <v>-1.2998366666664651E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="36">
+      <c r="A20" s="33">
         <v>1987</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="34">
         <v>2</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35">
         <v>10.58384</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="35">
         <v>10.58384</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="36">
+      <c r="A21" s="33">
         <v>1988</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="34">
         <v>2</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35">
         <v>11.61825</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="35">
         <v>11.61825</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="36">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="36">
+      <c r="A22" s="33">
         <v>1989</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="34">
         <v>2</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35">
         <v>12.584899999999999</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="35">
         <v>12.584899999999999</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
+      <c r="A23" s="37">
         <v>1990</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="38">
         <v>2</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42">
+      <c r="C23" s="39"/>
+      <c r="D23" s="39">
         <v>13.575939999999999</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="39">
         <v>13.575939999999999</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="41" t="s">
         <v>61</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="45">
+        <v>57</v>
+      </c>
+      <c r="B27" s="42">
         <f>AVERAGE(E2:E7)</f>
         <v>6.0549574999999995</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="43">
         <f>AVERAGE(E13:E18)</f>
         <v>6.0696123333333345</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="47">
+        <v>58</v>
+      </c>
+      <c r="B28" s="44">
         <f>AVERAGE(E8:E12)</f>
         <v>41.564892</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="45">
         <f>AVERAGE(E19:E23)</f>
         <v>11.58881</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="44">
+        <v>63</v>
+      </c>
+      <c r="B31" s="41">
         <f>(B28-B27) - (C28-C27)</f>
         <v>29.990736833333333</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="44">
+        <v>68</v>
+      </c>
+      <c r="B32" s="41">
         <f>AVERAGE(C8:C12) - AVERAGE(D8:D12)</f>
         <v>30.003735200000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="44"/>
+      <c r="B33" s="41"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="44"/>
+      <c r="C41" s="41"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2046,10 +2249,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B26958-D2FD-B340-96F0-C0F0E677AC3F}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2058,19 +2261,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="99" t="s">
+      <c r="B1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="97" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2078,19 +2281,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="73">
+      <c r="A2" s="69">
         <v>1980</v>
       </c>
-      <c r="B2" s="109">
-        <v>0</v>
-      </c>
-      <c r="C2" s="109">
-        <v>0</v>
-      </c>
-      <c r="D2" s="109">
-        <v>0</v>
-      </c>
-      <c r="E2" s="110">
+      <c r="B2" s="105">
+        <v>0</v>
+      </c>
+      <c r="C2" s="105">
+        <v>0</v>
+      </c>
+      <c r="D2" s="105">
+        <v>0</v>
+      </c>
+      <c r="E2" s="106">
         <v>0</v>
       </c>
       <c r="G2" t="s">
@@ -2098,19 +2301,19 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="73">
+      <c r="A3" s="69">
         <v>1981</v>
       </c>
-      <c r="B3" s="109">
-        <v>0</v>
-      </c>
-      <c r="C3" s="109">
-        <v>0</v>
-      </c>
-      <c r="D3" s="109">
-        <v>0</v>
-      </c>
-      <c r="E3" s="110">
+      <c r="B3" s="105">
+        <v>0</v>
+      </c>
+      <c r="C3" s="105">
+        <v>0</v>
+      </c>
+      <c r="D3" s="105">
+        <v>0</v>
+      </c>
+      <c r="E3" s="106">
         <v>0</v>
       </c>
       <c r="G3" t="s">
@@ -2118,19 +2321,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="73">
+      <c r="A4" s="69">
         <v>1982</v>
       </c>
-      <c r="B4" s="109">
-        <v>0</v>
-      </c>
-      <c r="C4" s="109">
-        <v>0</v>
-      </c>
-      <c r="D4" s="109">
-        <v>0</v>
-      </c>
-      <c r="E4" s="110">
+      <c r="B4" s="105">
+        <v>0</v>
+      </c>
+      <c r="C4" s="105">
+        <v>0</v>
+      </c>
+      <c r="D4" s="105">
+        <v>0</v>
+      </c>
+      <c r="E4" s="106">
         <v>0</v>
       </c>
       <c r="G4" t="s">
@@ -2138,56 +2341,56 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="73">
+      <c r="A5" s="69">
         <v>1983</v>
       </c>
-      <c r="B5" s="109">
-        <v>0</v>
-      </c>
-      <c r="C5" s="109">
-        <v>0</v>
-      </c>
-      <c r="D5" s="109">
-        <v>0</v>
-      </c>
-      <c r="E5" s="110">
+      <c r="B5" s="105">
+        <v>0</v>
+      </c>
+      <c r="C5" s="105">
+        <v>0</v>
+      </c>
+      <c r="D5" s="105">
+        <v>0</v>
+      </c>
+      <c r="E5" s="106">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="73">
+      <c r="A6" s="69">
         <v>1984</v>
       </c>
-      <c r="B6" s="109">
-        <v>0</v>
-      </c>
-      <c r="C6" s="109">
-        <v>0</v>
-      </c>
-      <c r="D6" s="109">
-        <v>0</v>
-      </c>
-      <c r="E6" s="110">
+      <c r="B6" s="105">
+        <v>0</v>
+      </c>
+      <c r="C6" s="105">
+        <v>0</v>
+      </c>
+      <c r="D6" s="105">
+        <v>0</v>
+      </c>
+      <c r="E6" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73">
+      <c r="A7" s="69">
         <v>1985</v>
       </c>
-      <c r="B7" s="109">
-        <v>0</v>
-      </c>
-      <c r="C7" s="109">
-        <v>0</v>
-      </c>
-      <c r="D7" s="109">
-        <v>0</v>
-      </c>
-      <c r="E7" s="110">
+      <c r="B7" s="105">
+        <v>0</v>
+      </c>
+      <c r="C7" s="105">
+        <v>0</v>
+      </c>
+      <c r="D7" s="105">
+        <v>0</v>
+      </c>
+      <c r="E7" s="106">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2195,19 +2398,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="73">
+      <c r="A8" s="69">
         <v>1986</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="78">
         <v>10</v>
       </c>
-      <c r="C8" s="109">
-        <v>0</v>
-      </c>
-      <c r="D8" s="109">
-        <v>0</v>
-      </c>
-      <c r="E8" s="110">
+      <c r="C8" s="105">
+        <v>0</v>
+      </c>
+      <c r="D8" s="105">
+        <v>0</v>
+      </c>
+      <c r="E8" s="106">
         <v>0</v>
       </c>
       <c r="G8" t="s">
@@ -2215,19 +2418,19 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="73">
+      <c r="A9" s="69">
         <v>1987</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="79">
         <v>20</v>
       </c>
-      <c r="C9" s="109">
-        <v>0</v>
-      </c>
-      <c r="D9" s="109">
-        <v>0</v>
-      </c>
-      <c r="E9" s="110">
+      <c r="C9" s="105">
+        <v>0</v>
+      </c>
+      <c r="D9" s="105">
+        <v>0</v>
+      </c>
+      <c r="E9" s="106">
         <v>0</v>
       </c>
       <c r="G9" t="s">
@@ -2235,19 +2438,19 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="73">
+      <c r="A10" s="69">
         <v>1988</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="79">
         <v>30</v>
       </c>
-      <c r="C10" s="109">
-        <v>0</v>
-      </c>
-      <c r="D10" s="109">
-        <v>0</v>
-      </c>
-      <c r="E10" s="110">
+      <c r="C10" s="105">
+        <v>0</v>
+      </c>
+      <c r="D10" s="105">
+        <v>0</v>
+      </c>
+      <c r="E10" s="106">
         <v>0</v>
       </c>
       <c r="G10" t="s">
@@ -2255,19 +2458,19 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="73">
+      <c r="A11" s="69">
         <v>1989</v>
       </c>
-      <c r="B11" s="83">
+      <c r="B11" s="79">
         <v>40</v>
       </c>
-      <c r="C11" s="109">
-        <v>0</v>
-      </c>
-      <c r="D11" s="109">
-        <v>0</v>
-      </c>
-      <c r="E11" s="110">
+      <c r="C11" s="105">
+        <v>0</v>
+      </c>
+      <c r="D11" s="105">
+        <v>0</v>
+      </c>
+      <c r="E11" s="106">
         <v>0</v>
       </c>
       <c r="G11" t="s">
@@ -2275,19 +2478,19 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="73">
+      <c r="A12" s="69">
         <v>1990</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="79">
         <v>50</v>
       </c>
-      <c r="C12" s="109">
-        <v>0</v>
-      </c>
-      <c r="D12" s="109">
-        <v>0</v>
-      </c>
-      <c r="E12" s="110">
+      <c r="C12" s="105">
+        <v>0</v>
+      </c>
+      <c r="D12" s="105">
+        <v>0</v>
+      </c>
+      <c r="E12" s="106">
         <v>0</v>
       </c>
       <c r="G12" t="s">
@@ -2295,415 +2498,427 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73">
+      <c r="A13" s="69">
         <v>1991</v>
       </c>
-      <c r="B13" s="83">
+      <c r="B13" s="79">
         <v>60</v>
       </c>
-      <c r="C13" s="109">
-        <v>0</v>
-      </c>
-      <c r="D13" s="109">
-        <v>0</v>
-      </c>
-      <c r="E13" s="110">
+      <c r="C13" s="105">
+        <v>0</v>
+      </c>
+      <c r="D13" s="105">
+        <v>0</v>
+      </c>
+      <c r="E13" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="73">
+      <c r="A14" s="69">
         <v>1992</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B14" s="79">
         <v>70</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="80">
         <v>8</v>
       </c>
-      <c r="D14" s="109">
-        <v>0</v>
-      </c>
-      <c r="E14" s="110">
+      <c r="D14" s="105">
+        <v>0</v>
+      </c>
+      <c r="E14" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="73">
+      <c r="A15" s="69">
         <v>1993</v>
       </c>
-      <c r="B15" s="83">
+      <c r="B15" s="79">
         <v>80</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="81">
         <v>16</v>
       </c>
-      <c r="D15" s="109">
-        <v>0</v>
-      </c>
-      <c r="E15" s="110">
+      <c r="D15" s="105">
+        <v>0</v>
+      </c>
+      <c r="E15" s="106">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="73">
+      <c r="A16" s="69">
         <v>1994</v>
       </c>
-      <c r="B16" s="83">
+      <c r="B16" s="79">
         <v>90</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="81">
         <v>24</v>
       </c>
-      <c r="D16" s="109">
-        <v>0</v>
-      </c>
-      <c r="E16" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="73">
+      <c r="D16" s="105">
+        <v>0</v>
+      </c>
+      <c r="E16" s="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="69">
         <v>1995</v>
       </c>
-      <c r="B17" s="83">
+      <c r="B17" s="79">
         <v>100</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="81">
         <v>32</v>
       </c>
-      <c r="D17" s="109">
-        <v>0</v>
-      </c>
-      <c r="E17" s="110">
+      <c r="D17" s="105">
+        <v>0</v>
+      </c>
+      <c r="E17" s="106">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="73">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="69">
         <v>1996</v>
       </c>
-      <c r="B18" s="83">
+      <c r="B18" s="79">
         <v>110</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="81">
         <v>40</v>
       </c>
-      <c r="D18" s="109">
-        <v>0</v>
-      </c>
-      <c r="E18" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73">
+      <c r="D18" s="105">
+        <v>0</v>
+      </c>
+      <c r="E18" s="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69">
         <v>1997</v>
       </c>
-      <c r="B19" s="83">
+      <c r="B19" s="79">
         <v>120</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="81">
         <v>48</v>
       </c>
-      <c r="D19" s="109">
-        <v>0</v>
-      </c>
-      <c r="E19" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="73">
+      <c r="D19" s="105">
+        <v>0</v>
+      </c>
+      <c r="E19" s="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="69">
         <v>1998</v>
       </c>
-      <c r="B20" s="83">
+      <c r="B20" s="79">
         <v>130</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C20" s="81">
         <v>56</v>
       </c>
-      <c r="D20" s="86">
+      <c r="D20" s="82">
         <v>6</v>
       </c>
-      <c r="E20" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="73">
+      <c r="E20" s="106">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="69">
         <v>1999</v>
       </c>
-      <c r="B21" s="83">
+      <c r="B21" s="79">
         <v>140</v>
       </c>
-      <c r="C21" s="85">
+      <c r="C21" s="81">
         <v>64</v>
       </c>
-      <c r="D21" s="87">
+      <c r="D21" s="83">
         <v>12</v>
       </c>
-      <c r="E21" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="73">
+      <c r="E21" s="106">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="69">
         <v>2000</v>
       </c>
-      <c r="B22" s="83">
+      <c r="B22" s="79">
         <v>150</v>
       </c>
-      <c r="C22" s="85">
+      <c r="C22" s="81">
         <v>72</v>
       </c>
-      <c r="D22" s="87">
+      <c r="D22" s="83">
         <v>18</v>
       </c>
-      <c r="E22" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="73">
+      <c r="E22" s="106">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="69">
         <v>2001</v>
       </c>
-      <c r="B23" s="83">
+      <c r="B23" s="79">
         <v>160</v>
       </c>
-      <c r="C23" s="85">
+      <c r="C23" s="81">
         <v>80</v>
       </c>
-      <c r="D23" s="87">
+      <c r="D23" s="83">
         <v>24</v>
       </c>
-      <c r="E23" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="73">
+      <c r="E23" s="106">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="69">
         <v>2002</v>
       </c>
-      <c r="B24" s="83">
+      <c r="B24" s="79">
         <v>170</v>
       </c>
-      <c r="C24" s="85">
+      <c r="C24" s="81">
         <v>88</v>
       </c>
-      <c r="D24" s="87">
+      <c r="D24" s="83">
         <v>30</v>
       </c>
-      <c r="E24" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73">
+      <c r="E24" s="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="69">
         <v>2003</v>
       </c>
-      <c r="B25" s="83">
+      <c r="B25" s="79">
         <v>180</v>
       </c>
-      <c r="C25" s="85">
+      <c r="C25" s="81">
         <v>96</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="83">
         <v>36</v>
       </c>
-      <c r="E25" s="110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="107">
+      <c r="E25" s="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="103">
         <v>2004</v>
       </c>
-      <c r="B26" s="103">
+      <c r="B26" s="99">
         <v>190</v>
       </c>
-      <c r="C26" s="103">
+      <c r="C26" s="99">
         <v>104</v>
       </c>
-      <c r="D26" s="103">
+      <c r="D26" s="99">
         <v>42</v>
       </c>
-      <c r="E26" s="103">
+      <c r="E26" s="99">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="102">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="98">
         <v>2005</v>
       </c>
-      <c r="B27" s="104">
+      <c r="B27" s="100">
         <v>200</v>
       </c>
-      <c r="C27" s="104">
+      <c r="C27" s="100">
         <v>112</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="100">
         <v>48</v>
       </c>
-      <c r="E27" s="104">
+      <c r="E27" s="100">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="102">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="98">
         <v>2006</v>
       </c>
-      <c r="B28" s="104">
+      <c r="B28" s="100">
         <v>210</v>
       </c>
-      <c r="C28" s="104">
+      <c r="C28" s="100">
         <v>120</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="100">
         <v>54</v>
       </c>
-      <c r="E28" s="104">
+      <c r="E28" s="100">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="102">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="98">
         <v>2007</v>
       </c>
-      <c r="B29" s="104">
+      <c r="B29" s="100">
         <v>220</v>
       </c>
-      <c r="C29" s="104">
+      <c r="C29" s="100">
         <v>128</v>
       </c>
-      <c r="D29" s="104">
+      <c r="D29" s="100">
         <v>60</v>
       </c>
-      <c r="E29" s="104">
+      <c r="E29" s="100">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="102">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="98">
         <v>2008</v>
       </c>
-      <c r="B30" s="104">
+      <c r="B30" s="100">
         <v>230</v>
       </c>
-      <c r="C30" s="104">
+      <c r="C30" s="100">
         <v>136</v>
       </c>
-      <c r="D30" s="104">
+      <c r="D30" s="100">
         <v>66</v>
       </c>
-      <c r="E30" s="104">
+      <c r="E30" s="100">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="105">
+    <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="101">
         <v>2009</v>
       </c>
-      <c r="B31" s="106">
+      <c r="B31" s="102">
         <v>240</v>
       </c>
-      <c r="C31" s="106">
+      <c r="C31" s="102">
         <v>144</v>
       </c>
-      <c r="D31" s="106">
+      <c r="D31" s="102">
         <v>72</v>
       </c>
-      <c r="E31" s="106">
+      <c r="E31" s="102">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="88" t="s">
+    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="97">
+      <c r="B32" s="93">
         <f>AVERAGE(B8:B31)</f>
         <v>125</v>
       </c>
-      <c r="C32" s="97">
+      <c r="C32" s="93">
         <f>AVERAGE(C14:C31)</f>
         <v>76</v>
       </c>
-      <c r="D32" s="97">
+      <c r="D32" s="93">
         <f>AVERAGE(D20:D31)</f>
         <v>39</v>
       </c>
-      <c r="E32" s="89">
+      <c r="E32" s="85">
         <f>AVERAGE(E26:E31)</f>
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="113">
+      <c r="A33" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="109">
         <f>AVERAGE(B8:B25)</f>
         <v>95</v>
       </c>
-      <c r="C33" s="114">
+      <c r="C33" s="110">
         <f>AVERAGE(C14:C25)</f>
         <v>52</v>
       </c>
-      <c r="D33" s="96">
+      <c r="D33" s="92">
         <f>AVERAGE(D20:D25)</f>
         <v>21</v>
       </c>
-      <c r="E33" s="115" t="s">
-        <v>134</v>
+      <c r="E33" s="111" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="92" t="s">
+      <c r="A34" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="93">
+      <c r="B34" s="89">
         <f>AVERAGE(B8:B31,C14:C31,D20:D31,E26:E31)</f>
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="91">
+      <c r="B35" s="87">
         <f>AVERAGE(B32:E32)</f>
         <v>63.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="111" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="112">
+      <c r="A36" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="108">
         <f>AVERAGE(D20:D25,C14:C25,B8:B25)</f>
         <v>68.333333333333329</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="111" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="112">
+      <c r="A37" s="107" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="108">
         <f>AVERAGE(B33:D33)</f>
         <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2713,33 +2928,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1B4EB1-DB07-9140-A162-D93248F2BA98}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="99" t="s">
+      <c r="B1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="97" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="G1" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
         <v>1980</v>
       </c>
       <c r="B2" s="4">
@@ -2754,9 +2978,18 @@
       <c r="E2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="G2" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="55">
+        <v>0</v>
+      </c>
+      <c r="I2" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
         <v>1981</v>
       </c>
       <c r="B3" s="4">
@@ -2771,9 +3004,18 @@
       <c r="E3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="G3" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="53">
+        <v>0</v>
+      </c>
+      <c r="I3" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>1982</v>
       </c>
       <c r="B4" s="4">
@@ -2788,9 +3030,18 @@
       <c r="E4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="G4" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="53">
+        <v>0</v>
+      </c>
+      <c r="I4" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>1983</v>
       </c>
       <c r="B5" s="4">
@@ -2805,9 +3056,19 @@
       <c r="E5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="G5" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="64">
+        <f>AVERAGE(B8,C14,D20,E26)</f>
+        <v>7</v>
+      </c>
+      <c r="I5" s="136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>1984</v>
       </c>
       <c r="B6" s="4">
@@ -2822,9 +3083,19 @@
       <c r="E6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="G6" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="59">
+        <f t="shared" ref="H6:H10" si="0">AVERAGE(B9,C15,D21,E27)</f>
+        <v>7</v>
+      </c>
+      <c r="I6" s="137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>1985</v>
       </c>
       <c r="B7" s="4">
@@ -2839,12 +3110,22 @@
       <c r="E7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="G7" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="59">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I7" s="137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>1986</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="78">
         <v>10</v>
       </c>
       <c r="C8" s="4">
@@ -2856,12 +3137,22 @@
       <c r="E8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+      <c r="G8" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="59">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I8" s="137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>1987</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="79">
         <v>10</v>
       </c>
       <c r="C9" s="4">
@@ -2873,12 +3164,22 @@
       <c r="E9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+      <c r="G9" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="59">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I9" s="137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>1988</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="79">
         <v>10</v>
       </c>
       <c r="C10" s="4">
@@ -2890,12 +3191,22 @@
       <c r="E10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="G10" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="61">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I10" s="138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>1989</v>
       </c>
-      <c r="B11" s="83">
+      <c r="B11" s="79">
         <v>10</v>
       </c>
       <c r="C11" s="4">
@@ -2907,12 +3218,22 @@
       <c r="E11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+      <c r="G11" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="146">
+        <f>AVERAGE(B14,C20,D26)</f>
+        <v>8</v>
+      </c>
+      <c r="I11" s="139">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>1990</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="79">
         <v>10</v>
       </c>
       <c r="C12" s="4">
@@ -2924,12 +3245,22 @@
       <c r="E12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="G12" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="146">
+        <f t="shared" ref="H12:H16" si="1">AVERAGE(B15,C21,D27)</f>
+        <v>8</v>
+      </c>
+      <c r="I12" s="140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>1991</v>
       </c>
-      <c r="B13" s="83">
+      <c r="B13" s="79">
         <v>10</v>
       </c>
       <c r="C13" s="4">
@@ -2941,15 +3272,25 @@
       <c r="E13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+      <c r="G13" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="146">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I13" s="140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>1992</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B14" s="79">
         <v>10</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="80">
         <v>8</v>
       </c>
       <c r="D14" s="4">
@@ -2958,15 +3299,25 @@
       <c r="E14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+      <c r="G14" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="146">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I14" s="140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>1993</v>
       </c>
-      <c r="B15" s="83">
+      <c r="B15" s="79">
         <v>10</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="81">
         <v>8</v>
       </c>
       <c r="D15" s="4">
@@ -2975,15 +3326,25 @@
       <c r="E15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+      <c r="G15" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="146">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I15" s="140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>1994</v>
       </c>
-      <c r="B16" s="83">
+      <c r="B16" s="79">
         <v>10</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="81">
         <v>8</v>
       </c>
       <c r="D16" s="4">
@@ -2992,15 +3353,25 @@
       <c r="E16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="G16" s="132" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="146">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I16" s="141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>1995</v>
       </c>
-      <c r="B17" s="83">
+      <c r="B17" s="79">
         <v>10</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="81">
         <v>8</v>
       </c>
       <c r="D17" s="4">
@@ -3009,15 +3380,25 @@
       <c r="E17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+      <c r="G17" s="133" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="147">
+        <f>AVERAGE(B20,C26)</f>
+        <v>9</v>
+      </c>
+      <c r="I17" s="142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
         <v>1996</v>
       </c>
-      <c r="B18" s="83">
+      <c r="B18" s="79">
         <v>10</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="81">
         <v>8</v>
       </c>
       <c r="D18" s="4">
@@ -3026,15 +3407,25 @@
       <c r="E18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="G18" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="147">
+        <f t="shared" ref="H18:H22" si="2">AVERAGE(B21,C27)</f>
+        <v>9</v>
+      </c>
+      <c r="I18" s="143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>1997</v>
       </c>
-      <c r="B19" s="83">
+      <c r="B19" s="79">
         <v>10</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="81">
         <v>8</v>
       </c>
       <c r="D19" s="4">
@@ -3043,261 +3434,331 @@
       <c r="E19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="G19" s="134" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="147">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I19" s="143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
         <v>1998</v>
       </c>
-      <c r="B20" s="83">
+      <c r="B20" s="79">
         <v>10</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C20" s="81">
         <v>8</v>
       </c>
-      <c r="D20" s="86">
+      <c r="D20" s="82">
         <v>6</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+      <c r="G20" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="147">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I20" s="143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
         <v>1999</v>
       </c>
-      <c r="B21" s="83">
+      <c r="B21" s="79">
         <v>10</v>
       </c>
-      <c r="C21" s="85">
+      <c r="C21" s="81">
         <v>8</v>
       </c>
-      <c r="D21" s="87">
+      <c r="D21" s="83">
         <v>6</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
+      <c r="G21" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="147">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I21" s="143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>2000</v>
       </c>
-      <c r="B22" s="83">
+      <c r="B22" s="79">
         <v>10</v>
       </c>
-      <c r="C22" s="85">
+      <c r="C22" s="81">
         <v>8</v>
       </c>
-      <c r="D22" s="87">
+      <c r="D22" s="83">
         <v>6</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
+      <c r="G22" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="147">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I22" s="144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
         <v>2001</v>
       </c>
-      <c r="B23" s="83">
+      <c r="B23" s="79">
         <v>10</v>
       </c>
-      <c r="C23" s="85">
+      <c r="C23" s="81">
         <v>8</v>
       </c>
-      <c r="D23" s="87">
+      <c r="D23" s="83">
         <v>6</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
+      <c r="G23" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="145">
+        <f>B26</f>
+        <v>10</v>
+      </c>
+      <c r="I23" s="137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
         <v>2002</v>
       </c>
-      <c r="B24" s="83">
+      <c r="B24" s="79">
         <v>10</v>
       </c>
-      <c r="C24" s="85">
+      <c r="C24" s="81">
         <v>8</v>
       </c>
-      <c r="D24" s="87">
+      <c r="D24" s="83">
         <v>6</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="G24" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="145">
+        <f t="shared" ref="H24:H25" si="3">B27</f>
+        <v>10</v>
+      </c>
+      <c r="I24" s="137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
         <v>2003</v>
       </c>
-      <c r="B25" s="83">
+      <c r="B25" s="79">
         <v>10</v>
       </c>
-      <c r="C25" s="85">
+      <c r="C25" s="81">
         <v>8</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="83">
         <v>6</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
+      <c r="G25" s="129" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="145">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I25" s="138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
         <v>2004</v>
       </c>
-      <c r="B26" s="83">
+      <c r="B26" s="79">
         <v>10</v>
       </c>
-      <c r="C26" s="85">
+      <c r="C26" s="81">
         <v>8</v>
       </c>
-      <c r="D26" s="87">
+      <c r="D26" s="83">
         <v>6</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
         <v>2005</v>
       </c>
-      <c r="B27" s="83">
+      <c r="B27" s="79">
         <v>10</v>
       </c>
-      <c r="C27" s="85">
+      <c r="C27" s="81">
         <v>8</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="83">
         <v>6</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="49">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
         <v>2006</v>
       </c>
-      <c r="B28" s="83">
+      <c r="B28" s="79">
         <v>10</v>
       </c>
-      <c r="C28" s="85">
+      <c r="C28" s="81">
         <v>8</v>
       </c>
-      <c r="D28" s="87">
+      <c r="D28" s="83">
         <v>6</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="49">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
         <v>2007</v>
       </c>
-      <c r="B29" s="83">
+      <c r="B29" s="79">
         <v>10</v>
       </c>
-      <c r="C29" s="85">
+      <c r="C29" s="81">
         <v>8</v>
       </c>
-      <c r="D29" s="87">
+      <c r="D29" s="83">
         <v>6</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="49">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
         <v>2008</v>
       </c>
-      <c r="B30" s="83">
+      <c r="B30" s="79">
         <v>10</v>
       </c>
-      <c r="C30" s="85">
+      <c r="C30" s="81">
         <v>8</v>
       </c>
-      <c r="D30" s="87">
+      <c r="D30" s="83">
         <v>6</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="49">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
         <v>2009</v>
       </c>
-      <c r="B31" s="83">
+      <c r="B31" s="79">
         <v>10</v>
       </c>
-      <c r="C31" s="85">
+      <c r="C31" s="81">
         <v>8</v>
       </c>
-      <c r="D31" s="87">
+      <c r="D31" s="83">
         <v>6</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="49">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="88" t="s">
+    <row r="32" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="97">
+      <c r="B32" s="93">
         <f>AVERAGE(B8:B31)</f>
         <v>10</v>
       </c>
-      <c r="C32" s="97">
+      <c r="C32" s="93">
         <f>AVERAGE(C14:C31)</f>
         <v>8</v>
       </c>
-      <c r="D32" s="97">
+      <c r="D32" s="93">
         <f>AVERAGE(D20:D31)</f>
         <v>6</v>
       </c>
-      <c r="E32" s="89">
+      <c r="E32" s="85">
         <f>AVERAGE(E26:E31)</f>
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="93">
+      <c r="B33" s="89">
         <f>AVERAGE(B8:B31,C14:C31,D20:D31,E26:E31)</f>
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="91">
+      <c r="B34" s="87">
         <f>AVERAGE(B32:E32)</f>
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="95"/>
+      <c r="A35" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3306,10 +3767,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8FA5D0-DE9F-6548-A74E-2E4FC95C5DFC}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3319,7 +3780,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3334,111 +3795,111 @@
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>1980</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="I2" s="55">
+        <f>AVERAGE(B5,C11,D17)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="55"/>
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1980</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="57" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>1981</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="58">
-        <f>AVERAGE(B5,C11,D17)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="58"/>
-      <c r="L2" t="s">
+      <c r="I3" s="53">
+        <f>AVERAGE(B6,C12,D18)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="53"/>
+      <c r="L3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>1981</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="55" t="s">
+    <row r="4" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>1982</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="56">
-        <f>AVERAGE(B6,C12,D18)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="56"/>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>1982</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="60">
+      <c r="I4" s="57">
         <f>AVERAGE(B7,C13,D19)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="60"/>
+      <c r="J4" s="57"/>
       <c r="K4">
         <v>13.776852</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="14">
         <v>1983</v>
       </c>
       <c r="B5" s="4">
@@ -3453,17 +3914,17 @@
       <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="68">
+      <c r="H5" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="64">
         <f>AVERAGE(B8,C14,D20)</f>
         <v>8</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="A6" s="14">
         <v>1984</v>
       </c>
       <c r="B6" s="4">
@@ -3478,20 +3939,20 @@
       <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="62">
+      <c r="H6" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="59">
         <f>AVERAGE(B9,C15,D21)</f>
         <v>16</v>
       </c>
-      <c r="J6" s="62"/>
+      <c r="J6" s="59"/>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="14">
         <v>1985</v>
       </c>
       <c r="B7" s="4">
@@ -3506,20 +3967,20 @@
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="62">
+      <c r="H7" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="59">
         <f t="shared" ref="I7:I10" si="0">AVERAGE(B10,C16,D22)</f>
         <v>24</v>
       </c>
-      <c r="J7" s="62"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="A8" s="14">
         <v>1986</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="63">
         <v>10</v>
       </c>
       <c r="C8" s="4">
@@ -3532,25 +3993,25 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="62">
+        <v>162</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="59">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J8" s="62"/>
+      <c r="J8" s="59"/>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+      <c r="A9" s="14">
         <v>1987</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="62">
         <v>20</v>
       </c>
       <c r="C9" s="4">
@@ -3562,23 +4023,26 @@
       <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="62">
+      <c r="G9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="59">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J9" s="62"/>
+      <c r="J9" s="59"/>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="14">
         <v>1988</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="62">
         <v>30</v>
       </c>
       <c r="C10" s="4">
@@ -3590,20 +4054,23 @@
       <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="64">
+      <c r="G10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="61">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="A11" s="14">
         <v>1989</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="62">
         <v>40</v>
       </c>
       <c r="C11" s="4">
@@ -3615,23 +4082,23 @@
       <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="71">
+      <c r="H11" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="67">
         <f>AVERAGE(B14,C20)</f>
         <v>63</v>
       </c>
-      <c r="J11" s="71"/>
+      <c r="J11" s="67"/>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+      <c r="A12" s="14">
         <v>1990</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="62">
         <v>50</v>
       </c>
       <c r="C12" s="4">
@@ -3643,23 +4110,23 @@
       <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="73">
+      <c r="H12" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="69">
         <f t="shared" ref="I12:I15" si="1">AVERAGE(B15,C21)</f>
         <v>72</v>
       </c>
-      <c r="J12" s="73"/>
+      <c r="J12" s="69"/>
       <c r="L12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="14">
         <v>1991</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="62">
         <v>60</v>
       </c>
       <c r="C13" s="4">
@@ -3671,23 +4138,23 @@
       <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="H13" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="73">
+      <c r="H13" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="69">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="J13" s="73"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+      <c r="A14" s="14">
         <v>1992</v>
       </c>
       <c r="B14" s="6">
         <v>70</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="63">
         <v>8</v>
       </c>
       <c r="D14" s="4">
@@ -3697,28 +4164,28 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="73">
+        <v>163</v>
+      </c>
+      <c r="H14" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="69">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="J14" s="73"/>
+      <c r="J14" s="69"/>
       <c r="L14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+      <c r="A15" s="14">
         <v>1993</v>
       </c>
       <c r="B15" s="6">
         <v>80</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="62">
         <v>16</v>
       </c>
       <c r="D15" s="4">
@@ -3727,26 +4194,29 @@
       <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="H15" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="73">
+      <c r="G15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="69">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="J15" s="73"/>
+      <c r="J15" s="69"/>
       <c r="L15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="14">
         <v>1994</v>
       </c>
       <c r="B16" s="6">
         <v>90</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="62">
         <v>24</v>
       </c>
       <c r="D16" s="4">
@@ -3755,23 +4225,26 @@
       <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="75">
+      <c r="G16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="71">
         <f>AVERAGE(B19,C25)</f>
         <v>108</v>
       </c>
-      <c r="J16" s="75"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="J16" s="71"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>1995</v>
       </c>
       <c r="B17" s="6">
         <v>100</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="62">
         <v>32</v>
       </c>
       <c r="D17" s="4">
@@ -3780,23 +4253,26 @@
       <c r="E17" s="5">
         <v>0</v>
       </c>
-      <c r="H17" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="77">
+      <c r="H17" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="73">
         <f>AVERAGE(B20)</f>
         <v>130</v>
       </c>
-      <c r="J17" s="77"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+      <c r="J17" s="73"/>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
         <v>1996</v>
       </c>
       <c r="B18" s="6">
         <v>110</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="62">
         <v>40</v>
       </c>
       <c r="D18" s="4">
@@ -3805,23 +4281,26 @@
       <c r="E18" s="5">
         <v>0</v>
       </c>
-      <c r="H18" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="79">
+      <c r="H18" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="75">
         <f t="shared" ref="I18:I22" si="2">AVERAGE(B21)</f>
         <v>140</v>
       </c>
-      <c r="J18" s="79"/>
-    </row>
-    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="J18" s="75"/>
+      <c r="M18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>1997</v>
       </c>
       <c r="B19" s="6">
         <v>120</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="62">
         <v>48</v>
       </c>
       <c r="D19" s="4">
@@ -3830,293 +4309,347 @@
       <c r="E19" s="5">
         <v>0</v>
       </c>
-      <c r="H19" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="79">
+      <c r="H19" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="75">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="J19" s="79"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="J19" s="75"/>
+      <c r="L19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
         <v>1998</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="83">
         <v>130</v>
       </c>
       <c r="C20" s="6">
         <v>56</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="63">
         <v>6</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="79">
+        <v>82</v>
+      </c>
+      <c r="H20" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="75">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="J20" s="79"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+      <c r="J20" s="75"/>
+      <c r="M20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
         <v>1999</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="83">
         <v>140</v>
       </c>
       <c r="C21" s="6">
         <v>64</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="62">
         <v>12</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
       </c>
-      <c r="H21" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="79">
+      <c r="G21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="75">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="J21" s="79"/>
-    </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="J21" s="75"/>
+      <c r="M21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>2000</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="83">
         <v>150</v>
       </c>
       <c r="C22" s="6">
         <v>72</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="62">
         <v>18</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
       </c>
-      <c r="H22" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="81">
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="77">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="J22" s="81"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
+      <c r="J22" s="77"/>
+      <c r="M22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
         <v>2001</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="83">
         <v>160</v>
       </c>
       <c r="C23" s="6">
         <v>80</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="62">
         <v>24</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
       </c>
-      <c r="H23" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
+      <c r="H23" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
         <v>2002</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="83">
         <v>170</v>
       </c>
       <c r="C24" s="6">
         <v>88</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="62">
         <v>30</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-    </row>
-    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+        <v>83</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="L24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
         <v>2003</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="83">
         <v>180</v>
       </c>
       <c r="C25" s="6">
         <v>96</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="62">
         <v>36</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
       </c>
-      <c r="H25" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="68">
+      <c r="H25" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="121">
         <v>2004</v>
       </c>
-      <c r="B26" s="66">
+      <c r="B26" s="122">
         <v>190</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="122">
         <v>104</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="122">
         <v>42</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="122">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="62">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="123">
         <v>2005</v>
       </c>
-      <c r="B27" s="65">
+      <c r="B27" s="124">
         <v>200</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="124">
         <v>112</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="124">
         <v>48</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="124">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="62">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="123">
         <v>2006</v>
       </c>
-      <c r="B28" s="65">
+      <c r="B28" s="124">
         <v>210</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="124">
         <v>120</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="124">
         <v>54</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="124">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="62">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="123">
         <v>2007</v>
       </c>
-      <c r="B29" s="65">
+      <c r="B29" s="124">
         <v>220</v>
       </c>
-      <c r="C29" s="65">
+      <c r="C29" s="124">
         <v>128</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="124">
         <v>60</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="124">
         <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="62">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="123">
         <v>2008</v>
       </c>
-      <c r="B30" s="65">
+      <c r="B30" s="124">
         <v>230</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="124">
         <v>136</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="124">
         <v>66</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="124">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64">
+    <row r="31" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="125">
         <v>2009</v>
       </c>
-      <c r="B31" s="67">
+      <c r="B31" s="126">
         <v>240</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="126">
         <v>144</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="126">
         <v>72</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="126">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="7"/>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="23"/>
+      <c r="B33" s="20"/>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4127,605 +4660,605 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251C0CA7-9A16-2046-AD4A-7480AD27DC99}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="99" t="s">
+      <c r="B1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="97" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="73">
+      <c r="A2" s="69">
         <v>1980</v>
       </c>
-      <c r="B2" s="109">
-        <v>0</v>
-      </c>
-      <c r="C2" s="109">
-        <v>0</v>
-      </c>
-      <c r="D2" s="109">
-        <v>0</v>
-      </c>
-      <c r="E2" s="110">
+      <c r="B2" s="105">
+        <v>0</v>
+      </c>
+      <c r="C2" s="105">
+        <v>0</v>
+      </c>
+      <c r="D2" s="105">
+        <v>0</v>
+      </c>
+      <c r="E2" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="73">
+      <c r="A3" s="69">
         <v>1981</v>
       </c>
-      <c r="B3" s="109">
+      <c r="B3" s="105">
         <v>-5.4800000000000001E-2</v>
       </c>
-      <c r="C3" s="109">
-        <v>0</v>
-      </c>
-      <c r="D3" s="109">
-        <v>0</v>
-      </c>
-      <c r="E3" s="110">
+      <c r="C3" s="105">
+        <v>0</v>
+      </c>
+      <c r="D3" s="105">
+        <v>0</v>
+      </c>
+      <c r="E3" s="106">
         <v>0</v>
       </c>
       <c r="F3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="69">
+        <v>1982</v>
+      </c>
+      <c r="B4" s="105">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="C4" s="105">
+        <v>0</v>
+      </c>
+      <c r="D4" s="105">
+        <v>0</v>
+      </c>
+      <c r="E4" s="106">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="69">
+        <v>1983</v>
+      </c>
+      <c r="B5" s="105">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="C5" s="105">
+        <v>0</v>
+      </c>
+      <c r="D5" s="105">
+        <v>0</v>
+      </c>
+      <c r="E5" s="106">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="73">
-        <v>1982</v>
-      </c>
-      <c r="B4" s="109">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="C4" s="109">
-        <v>0</v>
-      </c>
-      <c r="D4" s="109">
-        <v>0</v>
-      </c>
-      <c r="E4" s="110">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="69">
+        <v>1984</v>
+      </c>
+      <c r="B6" s="105">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="C6" s="105">
+        <v>0</v>
+      </c>
+      <c r="D6" s="105">
+        <v>0</v>
+      </c>
+      <c r="E6" s="106">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="73">
-        <v>1983</v>
-      </c>
-      <c r="B5" s="109">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="C5" s="109">
-        <v>0</v>
-      </c>
-      <c r="D5" s="109">
-        <v>0</v>
-      </c>
-      <c r="E5" s="110">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
+        <v>1985</v>
+      </c>
+      <c r="B7" s="105">
+        <v>-4.6800000000000001E-2</v>
+      </c>
+      <c r="C7" s="105">
+        <v>0</v>
+      </c>
+      <c r="D7" s="105">
+        <v>0</v>
+      </c>
+      <c r="E7" s="106">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="73">
-        <v>1984</v>
-      </c>
-      <c r="B6" s="109">
-        <v>5.1499999999999997E-2</v>
-      </c>
-      <c r="C6" s="109">
-        <v>0</v>
-      </c>
-      <c r="D6" s="109">
-        <v>0</v>
-      </c>
-      <c r="E6" s="110">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="69">
+        <v>1986</v>
+      </c>
+      <c r="B8" s="78">
+        <v>10.0258</v>
+      </c>
+      <c r="C8" s="105">
+        <v>0</v>
+      </c>
+      <c r="D8" s="105">
+        <v>0</v>
+      </c>
+      <c r="E8" s="106">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73">
-        <v>1985</v>
-      </c>
-      <c r="B7" s="109">
-        <v>-4.6800000000000001E-2</v>
-      </c>
-      <c r="C7" s="109">
-        <v>0</v>
-      </c>
-      <c r="D7" s="109">
-        <v>0</v>
-      </c>
-      <c r="E7" s="110">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="69">
+        <v>1987</v>
+      </c>
+      <c r="B9" s="79">
+        <v>20.043900000000001</v>
+      </c>
+      <c r="C9" s="105">
+        <v>0</v>
+      </c>
+      <c r="D9" s="105">
+        <v>0</v>
+      </c>
+      <c r="E9" s="106">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="73">
-        <v>1986</v>
-      </c>
-      <c r="B8" s="82">
-        <v>10.0258</v>
-      </c>
-      <c r="C8" s="109">
-        <v>0</v>
-      </c>
-      <c r="D8" s="109">
-        <v>0</v>
-      </c>
-      <c r="E8" s="110">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="69">
+        <v>1988</v>
+      </c>
+      <c r="B10" s="79">
+        <v>30.002800000000001</v>
+      </c>
+      <c r="C10" s="105">
+        <v>0</v>
+      </c>
+      <c r="D10" s="105">
+        <v>0</v>
+      </c>
+      <c r="E10" s="106">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="73">
-        <v>1987</v>
-      </c>
-      <c r="B9" s="83">
-        <v>20.043900000000001</v>
-      </c>
-      <c r="C9" s="109">
-        <v>0</v>
-      </c>
-      <c r="D9" s="109">
-        <v>0</v>
-      </c>
-      <c r="E9" s="110">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="69">
+        <v>1989</v>
+      </c>
+      <c r="B11" s="79">
+        <v>40.020099999999999</v>
+      </c>
+      <c r="C11" s="105">
+        <v>0</v>
+      </c>
+      <c r="D11" s="105">
+        <v>0</v>
+      </c>
+      <c r="E11" s="106">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="73">
-        <v>1988</v>
-      </c>
-      <c r="B10" s="83">
-        <v>30.002800000000001</v>
-      </c>
-      <c r="C10" s="109">
-        <v>0</v>
-      </c>
-      <c r="D10" s="109">
-        <v>0</v>
-      </c>
-      <c r="E10" s="110">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="69">
+        <v>1990</v>
+      </c>
+      <c r="B12" s="79">
+        <v>50</v>
+      </c>
+      <c r="C12" s="105">
+        <v>0</v>
+      </c>
+      <c r="D12" s="105">
+        <v>0</v>
+      </c>
+      <c r="E12" s="106">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="73">
-        <v>1989</v>
-      </c>
-      <c r="B11" s="83">
-        <v>40.020099999999999</v>
-      </c>
-      <c r="C11" s="109">
-        <v>0</v>
-      </c>
-      <c r="D11" s="109">
-        <v>0</v>
-      </c>
-      <c r="E11" s="110">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="69">
+        <v>1991</v>
+      </c>
+      <c r="B13" s="79">
+        <v>60</v>
+      </c>
+      <c r="C13" s="105">
+        <v>0</v>
+      </c>
+      <c r="D13" s="105">
+        <v>0</v>
+      </c>
+      <c r="E13" s="106">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="73">
-        <v>1990</v>
-      </c>
-      <c r="B12" s="83">
-        <v>50</v>
-      </c>
-      <c r="C12" s="109">
-        <v>0</v>
-      </c>
-      <c r="D12" s="109">
-        <v>0</v>
-      </c>
-      <c r="E12" s="110">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="69">
+        <v>1992</v>
+      </c>
+      <c r="B14" s="79">
+        <v>70</v>
+      </c>
+      <c r="C14" s="80">
+        <v>8</v>
+      </c>
+      <c r="D14" s="105">
+        <v>0</v>
+      </c>
+      <c r="E14" s="106">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73">
-        <v>1991</v>
-      </c>
-      <c r="B13" s="83">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="69">
+        <v>1993</v>
+      </c>
+      <c r="B15" s="79">
+        <v>80</v>
+      </c>
+      <c r="C15" s="81">
+        <v>16</v>
+      </c>
+      <c r="D15" s="105">
+        <v>0</v>
+      </c>
+      <c r="E15" s="106">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="69">
+        <v>1994</v>
+      </c>
+      <c r="B16" s="79">
+        <v>90</v>
+      </c>
+      <c r="C16" s="81">
+        <v>24</v>
+      </c>
+      <c r="D16" s="105">
+        <v>0</v>
+      </c>
+      <c r="E16" s="106">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="69">
+        <v>1995</v>
+      </c>
+      <c r="B17" s="79">
+        <v>100</v>
+      </c>
+      <c r="C17" s="81">
+        <v>32</v>
+      </c>
+      <c r="D17" s="105">
+        <v>0</v>
+      </c>
+      <c r="E17" s="106">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="69">
+        <v>1996</v>
+      </c>
+      <c r="B18" s="79">
+        <v>110</v>
+      </c>
+      <c r="C18" s="81">
+        <v>40</v>
+      </c>
+      <c r="D18" s="105">
+        <v>0</v>
+      </c>
+      <c r="E18" s="106">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69">
+        <v>1997</v>
+      </c>
+      <c r="B19" s="79">
+        <v>120</v>
+      </c>
+      <c r="C19" s="81">
+        <v>48</v>
+      </c>
+      <c r="D19" s="105">
+        <v>0</v>
+      </c>
+      <c r="E19" s="106">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="69">
+        <v>1998</v>
+      </c>
+      <c r="B20" s="79">
+        <v>130</v>
+      </c>
+      <c r="C20" s="81">
+        <v>56</v>
+      </c>
+      <c r="D20" s="82">
+        <v>6</v>
+      </c>
+      <c r="E20" s="106">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="69">
+        <v>1999</v>
+      </c>
+      <c r="B21" s="79">
+        <v>140</v>
+      </c>
+      <c r="C21" s="81">
+        <v>64</v>
+      </c>
+      <c r="D21" s="83">
+        <v>12</v>
+      </c>
+      <c r="E21" s="106">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="69">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="79">
+        <v>150</v>
+      </c>
+      <c r="C22" s="81">
+        <v>72</v>
+      </c>
+      <c r="D22" s="83">
+        <v>18</v>
+      </c>
+      <c r="E22" s="106">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="69">
+        <v>2001</v>
+      </c>
+      <c r="B23" s="79">
+        <v>160</v>
+      </c>
+      <c r="C23" s="81">
+        <v>80</v>
+      </c>
+      <c r="D23" s="83">
+        <v>24</v>
+      </c>
+      <c r="E23" s="106">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="69">
+        <v>2002</v>
+      </c>
+      <c r="B24" s="79">
+        <v>170</v>
+      </c>
+      <c r="C24" s="81">
+        <v>88</v>
+      </c>
+      <c r="D24" s="83">
+        <v>30</v>
+      </c>
+      <c r="E24" s="106">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="71">
+        <v>2003</v>
+      </c>
+      <c r="B25" s="118">
+        <v>179.98099999999999</v>
+      </c>
+      <c r="C25" s="119">
+        <v>96</v>
+      </c>
+      <c r="D25" s="18">
+        <v>36</v>
+      </c>
+      <c r="E25" s="120">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="103">
+        <v>2004</v>
+      </c>
+      <c r="B26" s="99">
+        <v>190</v>
+      </c>
+      <c r="C26" s="99">
+        <v>104</v>
+      </c>
+      <c r="D26" s="99">
+        <v>42</v>
+      </c>
+      <c r="E26" s="99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="98">
+        <v>2005</v>
+      </c>
+      <c r="B27" s="100">
+        <v>200</v>
+      </c>
+      <c r="C27" s="100">
+        <v>112</v>
+      </c>
+      <c r="D27" s="100">
+        <v>48</v>
+      </c>
+      <c r="E27" s="100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="98">
+        <v>2006</v>
+      </c>
+      <c r="B28" s="100">
+        <v>210</v>
+      </c>
+      <c r="C28" s="100">
+        <v>120</v>
+      </c>
+      <c r="D28" s="100">
+        <v>54</v>
+      </c>
+      <c r="E28" s="100">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="98">
+        <v>2007</v>
+      </c>
+      <c r="B29" s="100">
+        <v>220</v>
+      </c>
+      <c r="C29" s="100">
+        <v>128</v>
+      </c>
+      <c r="D29" s="100">
         <v>60</v>
       </c>
-      <c r="C13" s="109">
-        <v>0</v>
-      </c>
-      <c r="D13" s="109">
-        <v>0</v>
-      </c>
-      <c r="E13" s="110">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="73">
-        <v>1992</v>
-      </c>
-      <c r="B14" s="83">
-        <v>70</v>
-      </c>
-      <c r="C14" s="84">
-        <v>8</v>
-      </c>
-      <c r="D14" s="109">
-        <v>0</v>
-      </c>
-      <c r="E14" s="110">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="73">
-        <v>1993</v>
-      </c>
-      <c r="B15" s="83">
-        <v>80</v>
-      </c>
-      <c r="C15" s="85">
+      <c r="E29" s="100">
         <v>16</v>
       </c>
-      <c r="D15" s="109">
-        <v>0</v>
-      </c>
-      <c r="E15" s="110">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="73">
-        <v>1994</v>
-      </c>
-      <c r="B16" s="83">
-        <v>90</v>
-      </c>
-      <c r="C16" s="85">
-        <v>24</v>
-      </c>
-      <c r="D16" s="109">
-        <v>0</v>
-      </c>
-      <c r="E16" s="110">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="73">
-        <v>1995</v>
-      </c>
-      <c r="B17" s="83">
-        <v>100</v>
-      </c>
-      <c r="C17" s="85">
-        <v>32</v>
-      </c>
-      <c r="D17" s="109">
-        <v>0</v>
-      </c>
-      <c r="E17" s="110">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="73">
-        <v>1996</v>
-      </c>
-      <c r="B18" s="83">
-        <v>110</v>
-      </c>
-      <c r="C18" s="85">
-        <v>40</v>
-      </c>
-      <c r="D18" s="109">
-        <v>0</v>
-      </c>
-      <c r="E18" s="110">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73">
-        <v>1997</v>
-      </c>
-      <c r="B19" s="83">
-        <v>120</v>
-      </c>
-      <c r="C19" s="85">
-        <v>48</v>
-      </c>
-      <c r="D19" s="109">
-        <v>0</v>
-      </c>
-      <c r="E19" s="110">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="73">
-        <v>1998</v>
-      </c>
-      <c r="B20" s="83">
-        <v>130</v>
-      </c>
-      <c r="C20" s="85">
-        <v>56</v>
-      </c>
-      <c r="D20" s="86">
-        <v>6</v>
-      </c>
-      <c r="E20" s="110">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="73">
-        <v>1999</v>
-      </c>
-      <c r="B21" s="83">
-        <v>140</v>
-      </c>
-      <c r="C21" s="85">
-        <v>64</v>
-      </c>
-      <c r="D21" s="87">
-        <v>12</v>
-      </c>
-      <c r="E21" s="110">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="73">
-        <v>2000</v>
-      </c>
-      <c r="B22" s="83">
-        <v>150</v>
-      </c>
-      <c r="C22" s="85">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="98">
+        <v>2008</v>
+      </c>
+      <c r="B30" s="100">
+        <v>230</v>
+      </c>
+      <c r="C30" s="100">
+        <v>136</v>
+      </c>
+      <c r="D30" s="100">
+        <v>66</v>
+      </c>
+      <c r="E30" s="100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="101">
+        <v>2009</v>
+      </c>
+      <c r="B31" s="102">
+        <v>240</v>
+      </c>
+      <c r="C31" s="102">
+        <v>144</v>
+      </c>
+      <c r="D31" s="102">
         <v>72</v>
       </c>
-      <c r="D22" s="87">
-        <v>18</v>
-      </c>
-      <c r="E22" s="110">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="73">
-        <v>2001</v>
-      </c>
-      <c r="B23" s="83">
-        <v>160</v>
-      </c>
-      <c r="C23" s="85">
-        <v>80</v>
-      </c>
-      <c r="D23" s="87">
-        <v>24</v>
-      </c>
-      <c r="E23" s="110">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="73">
-        <v>2002</v>
-      </c>
-      <c r="B24" s="83">
-        <v>170</v>
-      </c>
-      <c r="C24" s="85">
-        <v>88</v>
-      </c>
-      <c r="D24" s="87">
-        <v>30</v>
-      </c>
-      <c r="E24" s="110">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75">
-        <v>2003</v>
-      </c>
-      <c r="B25" s="122">
-        <v>179.98099999999999</v>
-      </c>
-      <c r="C25" s="123">
-        <v>96</v>
-      </c>
-      <c r="D25" s="21">
-        <v>36</v>
-      </c>
-      <c r="E25" s="124">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="107">
-        <v>2004</v>
-      </c>
-      <c r="B26" s="103">
-        <v>190</v>
-      </c>
-      <c r="C26" s="103">
-        <v>104</v>
-      </c>
-      <c r="D26" s="103">
-        <v>42</v>
-      </c>
-      <c r="E26" s="103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="102">
-        <v>2005</v>
-      </c>
-      <c r="B27" s="104">
-        <v>200</v>
-      </c>
-      <c r="C27" s="104">
-        <v>112</v>
-      </c>
-      <c r="D27" s="104">
-        <v>48</v>
-      </c>
-      <c r="E27" s="104">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="102">
-        <v>2006</v>
-      </c>
-      <c r="B28" s="104">
-        <v>210</v>
-      </c>
-      <c r="C28" s="104">
-        <v>120</v>
-      </c>
-      <c r="D28" s="104">
-        <v>54</v>
-      </c>
-      <c r="E28" s="104">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="102">
-        <v>2007</v>
-      </c>
-      <c r="B29" s="104">
-        <v>220</v>
-      </c>
-      <c r="C29" s="104">
-        <v>128</v>
-      </c>
-      <c r="D29" s="104">
-        <v>60</v>
-      </c>
-      <c r="E29" s="104">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="102">
-        <v>2008</v>
-      </c>
-      <c r="B30" s="104">
-        <v>230</v>
-      </c>
-      <c r="C30" s="104">
-        <v>136</v>
-      </c>
-      <c r="D30" s="104">
-        <v>66</v>
-      </c>
-      <c r="E30" s="104">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="105">
-        <v>2009</v>
-      </c>
-      <c r="B31" s="106">
-        <v>240</v>
-      </c>
-      <c r="C31" s="106">
-        <v>144</v>
-      </c>
-      <c r="D31" s="106">
-        <v>72</v>
-      </c>
-      <c r="E31" s="106">
+      <c r="E31" s="102">
         <v>24</v>
       </c>
     </row>
@@ -4736,175 +5269,276 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D272A3-FE33-B441-B204-2A2BAB3C8471}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.33203125" style="120" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="120" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="120"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="116" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="116" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="116"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="118" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="121" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="119" t="s">
+      <c r="A1" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="114" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="117" t="s">
         <v>123</v>
-      </c>
-      <c r="E1" s="121" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="120">
-        <v>0</v>
-      </c>
-      <c r="D2" s="120">
+        <v>108</v>
+      </c>
+      <c r="C2" s="116">
+        <v>0</v>
+      </c>
+      <c r="D2" s="116">
         <v>0.75</v>
       </c>
-      <c r="E2" s="120" t="s">
-        <v>126</v>
+      <c r="E2" s="116" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="120">
+        <v>109</v>
+      </c>
+      <c r="C3" s="116">
         <v>0.1</v>
       </c>
-      <c r="D3" s="120">
+      <c r="D3" s="116">
         <v>0.1</v>
       </c>
-      <c r="E3" s="120" t="s">
-        <v>127</v>
+      <c r="E3" s="116" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="120">
+        <v>110</v>
+      </c>
+      <c r="C4" s="116">
         <v>0.6</v>
       </c>
-      <c r="D4" s="120">
-        <v>0</v>
-      </c>
-      <c r="E4" s="120" t="s">
-        <v>128</v>
+      <c r="D4" s="116">
+        <v>0</v>
+      </c>
+      <c r="E4" s="116" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="120">
-        <v>0</v>
-      </c>
-      <c r="D5" s="120">
-        <v>0</v>
-      </c>
-      <c r="E5" s="120" t="s">
-        <v>129</v>
+        <v>111</v>
+      </c>
+      <c r="C5" s="116">
+        <v>0</v>
+      </c>
+      <c r="D5" s="116">
+        <v>0</v>
+      </c>
+      <c r="E5" s="116" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="120">
-        <v>0</v>
-      </c>
-      <c r="D6" s="120">
-        <v>0</v>
-      </c>
-      <c r="E6" s="120" t="s">
-        <v>130</v>
+        <v>112</v>
+      </c>
+      <c r="C6" s="116">
+        <v>0</v>
+      </c>
+      <c r="D6" s="116">
+        <v>0</v>
+      </c>
+      <c r="E6" s="116" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="120">
+        <v>115</v>
+      </c>
+      <c r="C8" s="116">
         <v>0.05</v>
       </c>
-      <c r="D8" s="120">
+      <c r="D8" s="116">
         <v>0.15</v>
       </c>
-      <c r="E8" s="120" t="s">
-        <v>131</v>
+      <c r="E8" s="116" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="120">
+        <v>119</v>
+      </c>
+      <c r="C9" s="116">
         <v>1</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D9" s="116">
         <v>1</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="148" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="148" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="116">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="116">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="116">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="116">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20">
+        <v>0.15</v>
+      </c>
+      <c r="C20" s="116">
+        <v>0.15</v>
+      </c>
+      <c r="D20" s="116">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
